--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="24000" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -14,21 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>攻击</t>
-  </si>
-  <si>
-    <t>防御</t>
-  </si>
-  <si>
-    <t>血量</t>
   </si>
   <si>
     <t>Level</t>
@@ -40,7 +28,10 @@
     <t>Def</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Hp</t>
+  </si>
+  <si>
+    <t>Exp</t>
   </si>
   <si>
     <t>int</t>
@@ -1050,13 +1041,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:G355"/>
+  <dimension ref="C3:H355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
@@ -1064,10 +1055,11 @@
     <col min="5" max="5" width="8.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="6.75" style="2" customWidth="1"/>
     <col min="7" max="7" width="9.25" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="8" max="8" width="14.25" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:7">
+    <row r="3" spans="3:8">
       <c r="C3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1083,42 +1075,51 @@
       <c r="G3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="3:7">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8">
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="D5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="3:7">
-      <c r="C5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="3:7">
+        <v>7</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1136,8 +1137,11 @@
         <f t="shared" ref="G6:G69" si="1">E6*10</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="3:7">
+      <c r="H6" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1156,8 +1160,11 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="3:7">
+      <c r="H7" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1176,8 +1183,11 @@
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-    </row>
-    <row r="9" spans="3:7">
+      <c r="H8" s="2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1196,8 +1206,11 @@
         <f t="shared" si="1"/>
         <v>200</v>
       </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="3:7">
+      <c r="H9" s="2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" spans="3:8">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -1216,8 +1229,11 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="11" spans="3:7">
+      <c r="H10" s="2">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -1236,8 +1252,11 @@
         <f t="shared" si="1"/>
         <v>300</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
+      <c r="H11" s="2">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8">
       <c r="C12" s="2">
         <v>7</v>
       </c>
@@ -1256,8 +1275,11 @@
         <f t="shared" si="1"/>
         <v>350</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="H12" s="2">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8">
       <c r="C13" s="2">
         <v>8</v>
       </c>
@@ -1276,8 +1298,11 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="H13" s="2">
+        <v>7680</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8">
       <c r="C14" s="2">
         <v>9</v>
       </c>
@@ -1296,8 +1321,11 @@
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="H14" s="2">
+        <v>14040</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8">
       <c r="C15" s="2">
         <v>10</v>
       </c>
@@ -1316,8 +1344,11 @@
         <f t="shared" si="1"/>
         <v>500</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="H15" s="2">
+        <v>21600</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8">
       <c r="C16" s="2">
         <v>11</v>
       </c>
@@ -1336,8 +1367,11 @@
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="H16" s="2">
+        <v>33120</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
       <c r="C17" s="2">
         <v>12</v>
       </c>
@@ -1356,8 +1390,11 @@
         <f t="shared" si="1"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="H17" s="2">
+        <v>55440</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
       <c r="C18" s="2">
         <v>13</v>
       </c>
@@ -1376,8 +1413,11 @@
         <f t="shared" si="1"/>
         <v>800</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="H18" s="2">
+        <v>82560</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
       <c r="C19" s="2">
         <v>14</v>
       </c>
@@ -1396,8 +1436,11 @@
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="H19" s="2">
+        <v>114480</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8">
       <c r="C20" s="2">
         <v>15</v>
       </c>
@@ -1416,8 +1459,11 @@
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="21" spans="3:7">
+      <c r="H20" s="2">
+        <v>163200</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
       <c r="C21" s="2">
         <v>16</v>
       </c>
@@ -1436,8 +1482,11 @@
         <f t="shared" si="1"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="22" spans="3:7">
+      <c r="H21" s="2">
+        <v>219120</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
       <c r="C22" s="2">
         <v>17</v>
       </c>
@@ -1456,8 +1505,11 @@
         <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-    </row>
-    <row r="23" spans="3:7">
+      <c r="H22" s="2">
+        <v>282240</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
       <c r="C23" s="2">
         <v>18</v>
       </c>
@@ -1476,8 +1528,11 @@
         <f t="shared" si="1"/>
         <v>1300</v>
       </c>
-    </row>
-    <row r="24" spans="3:7">
+      <c r="H23" s="2">
+        <v>368160</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
       <c r="C24" s="2">
         <v>19</v>
       </c>
@@ -1496,8 +1551,11 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-    </row>
-    <row r="25" spans="3:7">
+      <c r="H24" s="2">
+        <v>463680</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
       <c r="C25" s="2">
         <v>20</v>
       </c>
@@ -1516,8 +1574,11 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-    </row>
-    <row r="26" spans="3:7">
+      <c r="H25" s="2">
+        <v>568800</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
       <c r="C26" s="2">
         <v>21</v>
       </c>
@@ -1536,8 +1597,11 @@
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
-    </row>
-    <row r="27" spans="3:7">
+      <c r="H26" s="2">
+        <v>744480</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
       <c r="C27" s="2">
         <v>22</v>
       </c>
@@ -1556,8 +1620,11 @@
         <f t="shared" si="1"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="28" spans="3:7">
+      <c r="H27" s="2">
+        <v>941760</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
       <c r="C28" s="2">
         <v>23</v>
       </c>
@@ -1576,8 +1643,11 @@
         <f t="shared" si="1"/>
         <v>1950</v>
       </c>
-    </row>
-    <row r="29" spans="3:7">
+      <c r="H28" s="2">
+        <v>1160640</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
       <c r="C29" s="2">
         <v>24</v>
       </c>
@@ -1596,8 +1666,11 @@
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-    </row>
-    <row r="30" spans="3:7">
+      <c r="H29" s="2">
+        <v>1476720</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
       <c r="C30" s="2">
         <v>25</v>
       </c>
@@ -1616,8 +1689,11 @@
         <f t="shared" si="1"/>
         <v>2250</v>
       </c>
-    </row>
-    <row r="31" spans="3:7">
+      <c r="H30" s="2">
+        <v>1825200</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
       <c r="C31" s="2">
         <v>26</v>
       </c>
@@ -1636,8 +1712,11 @@
         <f t="shared" si="1"/>
         <v>2400</v>
       </c>
-    </row>
-    <row r="32" spans="3:7">
+      <c r="H31" s="2">
+        <v>2206080</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8">
       <c r="C32" s="2">
         <v>27</v>
       </c>
@@ -1656,8 +1735,11 @@
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
-    </row>
-    <row r="33" spans="3:7">
+      <c r="H32" s="2">
+        <v>2711160</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8">
       <c r="C33" s="2">
         <v>28</v>
       </c>
@@ -1676,8 +1758,11 @@
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-    </row>
-    <row r="34" spans="3:7">
+      <c r="H33" s="2">
+        <v>3259440</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8">
       <c r="C34" s="2">
         <v>29</v>
       </c>
@@ -1696,8 +1781,11 @@
         <f t="shared" si="1"/>
         <v>2850</v>
       </c>
-    </row>
-    <row r="35" spans="3:7">
+      <c r="H34" s="2">
+        <v>3850920</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8">
       <c r="C35" s="5">
         <v>30</v>
       </c>
@@ -1716,8 +1804,11 @@
         <f t="shared" si="1"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="36" spans="3:7">
+      <c r="H35" s="2">
+        <v>4917600</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8">
       <c r="C36" s="2">
         <v>31</v>
       </c>
@@ -1736,8 +1827,11 @@
         <f t="shared" si="1"/>
         <v>3300</v>
       </c>
-    </row>
-    <row r="37" spans="3:7">
+      <c r="H36" s="2">
+        <v>6359760</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8">
       <c r="C37" s="2">
         <v>32</v>
       </c>
@@ -1756,8 +1850,11 @@
         <f t="shared" si="1"/>
         <v>3600</v>
       </c>
-    </row>
-    <row r="38" spans="3:7">
+      <c r="H37" s="2">
+        <v>8493120</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8">
       <c r="C38" s="2">
         <v>33</v>
       </c>
@@ -1776,8 +1873,11 @@
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
-    </row>
-    <row r="39" spans="3:7">
+      <c r="H38" s="2">
+        <v>10885680</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8">
       <c r="C39" s="2">
         <v>34</v>
       </c>
@@ -1796,8 +1896,11 @@
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
-    </row>
-    <row r="40" spans="3:7">
+      <c r="H39" s="2">
+        <v>13839840</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8">
       <c r="C40" s="2">
         <v>35</v>
       </c>
@@ -1816,8 +1919,11 @@
         <f t="shared" si="1"/>
         <v>4500</v>
       </c>
-    </row>
-    <row r="41" spans="3:7">
+      <c r="H40" s="2">
+        <v>17096400</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8">
       <c r="C41" s="2">
         <v>36</v>
       </c>
@@ -1836,8 +1942,11 @@
         <f t="shared" si="1"/>
         <v>4800</v>
       </c>
-    </row>
-    <row r="42" spans="3:7">
+      <c r="H41" s="2">
+        <v>21000960</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8">
       <c r="C42" s="2">
         <v>37</v>
       </c>
@@ -1856,8 +1965,11 @@
         <f t="shared" si="1"/>
         <v>5100</v>
       </c>
-    </row>
-    <row r="43" spans="3:7">
+      <c r="H42" s="2">
+        <v>25251120</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8">
       <c r="C43" s="2">
         <v>38</v>
       </c>
@@ -1876,8 +1988,11 @@
         <f t="shared" si="1"/>
         <v>5400</v>
       </c>
-    </row>
-    <row r="44" spans="3:7">
+      <c r="H43" s="2">
+        <v>30235680</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8">
       <c r="C44" s="2">
         <v>39</v>
       </c>
@@ -1896,8 +2011,11 @@
         <f t="shared" si="1"/>
         <v>5700</v>
       </c>
-    </row>
-    <row r="45" spans="3:7">
+      <c r="H44" s="2">
+        <v>35609040</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8">
       <c r="C45" s="5">
         <v>40</v>
       </c>
@@ -1916,8 +2034,11 @@
         <f t="shared" si="1"/>
         <v>6000</v>
       </c>
-    </row>
-    <row r="46" spans="3:7">
+      <c r="H45" s="2">
+        <v>41803200</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8">
       <c r="C46" s="2">
         <v>41</v>
       </c>
@@ -1936,8 +2057,11 @@
         <f t="shared" si="1"/>
         <v>6400</v>
       </c>
-    </row>
-    <row r="47" spans="3:7">
+      <c r="H46" s="2">
+        <v>49198080</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8">
       <c r="C47" s="2">
         <v>42</v>
       </c>
@@ -1956,8 +2080,11 @@
         <f t="shared" si="1"/>
         <v>6800</v>
       </c>
-    </row>
-    <row r="48" spans="3:7">
+      <c r="H47" s="2">
+        <v>57658560</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8">
       <c r="C48" s="2">
         <v>43</v>
       </c>
@@ -1976,8 +2103,11 @@
         <f t="shared" si="1"/>
         <v>7200</v>
       </c>
-    </row>
-    <row r="49" spans="3:7">
+      <c r="H48" s="2">
+        <v>66752640</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8">
       <c r="C49" s="2">
         <v>44</v>
       </c>
@@ -1996,8 +2126,11 @@
         <f t="shared" si="1"/>
         <v>7600</v>
       </c>
-    </row>
-    <row r="50" spans="3:7">
+      <c r="H49" s="2">
+        <v>77027520</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8">
       <c r="C50" s="2">
         <v>45</v>
       </c>
@@ -2016,8 +2149,11 @@
         <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-    </row>
-    <row r="51" spans="3:7">
+      <c r="H50" s="2">
+        <v>87993600</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8">
       <c r="C51" s="2">
         <v>46</v>
       </c>
@@ -2036,8 +2172,11 @@
         <f t="shared" si="1"/>
         <v>8400</v>
       </c>
-    </row>
-    <row r="52" spans="3:7">
+      <c r="H51" s="2">
+        <v>100255680</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8">
       <c r="C52" s="2">
         <v>47</v>
       </c>
@@ -2056,8 +2195,11 @@
         <f t="shared" si="1"/>
         <v>8800</v>
       </c>
-    </row>
-    <row r="53" spans="3:7">
+      <c r="H52" s="2">
+        <v>113266560</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8">
       <c r="C53" s="2">
         <v>48</v>
       </c>
@@ -2076,8 +2218,11 @@
         <f t="shared" si="1"/>
         <v>9200</v>
       </c>
-    </row>
-    <row r="54" spans="3:7">
+      <c r="H53" s="2">
+        <v>127688640</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8">
       <c r="C54" s="2">
         <v>49</v>
       </c>
@@ -2096,8 +2241,11 @@
         <f t="shared" si="1"/>
         <v>9600</v>
       </c>
-    </row>
-    <row r="55" spans="3:7">
+      <c r="H54" s="2">
+        <v>142917120</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8">
       <c r="C55" s="5">
         <v>50</v>
       </c>
@@ -2116,8 +2264,11 @@
         <f t="shared" si="1"/>
         <v>10000</v>
       </c>
-    </row>
-    <row r="56" spans="3:7">
+      <c r="H55" s="2">
+        <v>159672000</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8">
       <c r="C56" s="2">
         <v>51</v>
       </c>
@@ -2136,8 +2287,11 @@
         <f t="shared" si="1"/>
         <v>11000</v>
       </c>
-    </row>
-    <row r="57" spans="3:7">
+      <c r="H56" s="2">
+        <v>187519200</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8">
       <c r="C57" s="2">
         <v>52</v>
       </c>
@@ -2156,8 +2310,11 @@
         <f t="shared" si="1"/>
         <v>12000</v>
       </c>
-    </row>
-    <row r="58" spans="3:7">
+      <c r="H57" s="2">
+        <v>217526400</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8">
       <c r="C58" s="2">
         <v>53</v>
       </c>
@@ -2176,8 +2333,11 @@
         <f t="shared" si="1"/>
         <v>13000</v>
       </c>
-    </row>
-    <row r="59" spans="3:7">
+      <c r="H58" s="2">
+        <v>250629600</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8">
       <c r="C59" s="2">
         <v>54</v>
       </c>
@@ -2196,8 +2356,11 @@
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-    </row>
-    <row r="60" spans="3:7">
+      <c r="H59" s="2">
+        <v>286036800</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8">
       <c r="C60" s="2">
         <v>55</v>
       </c>
@@ -2216,8 +2379,11 @@
         <f t="shared" si="1"/>
         <v>15000</v>
       </c>
-    </row>
-    <row r="61" spans="3:7">
+      <c r="H60" s="2">
+        <v>323748000</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8">
       <c r="C61" s="2">
         <v>56</v>
       </c>
@@ -2236,8 +2402,11 @@
         <f t="shared" si="1"/>
         <v>16000</v>
       </c>
-    </row>
-    <row r="62" spans="3:7">
+      <c r="H61" s="2">
+        <v>363763200</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8">
       <c r="C62" s="2">
         <v>57</v>
       </c>
@@ -2256,8 +2425,11 @@
         <f t="shared" si="1"/>
         <v>17000</v>
       </c>
-    </row>
-    <row r="63" spans="3:7">
+      <c r="H62" s="2">
+        <v>407306400</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8">
       <c r="C63" s="2">
         <v>58</v>
       </c>
@@ -2276,8 +2448,11 @@
         <f t="shared" si="1"/>
         <v>18000</v>
       </c>
-    </row>
-    <row r="64" spans="3:7">
+      <c r="H63" s="2">
+        <v>453297600</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8">
       <c r="C64" s="2">
         <v>59</v>
       </c>
@@ -2296,8 +2471,11 @@
         <f t="shared" si="1"/>
         <v>19000</v>
       </c>
-    </row>
-    <row r="65" spans="3:7">
+      <c r="H64" s="2">
+        <v>501736800</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
       <c r="C65" s="5">
         <v>60</v>
       </c>
@@ -2316,8 +2494,11 @@
         <f t="shared" si="1"/>
         <v>20000</v>
       </c>
-    </row>
-    <row r="66" spans="3:7">
+      <c r="H65" s="2">
+        <v>552624000</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
       <c r="C66" s="2">
         <v>61</v>
       </c>
@@ -2336,8 +2517,11 @@
         <f t="shared" si="1"/>
         <v>21500</v>
       </c>
-    </row>
-    <row r="67" spans="3:7">
+      <c r="H66" s="2">
+        <v>620386800</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8">
       <c r="C67" s="2">
         <v>62</v>
       </c>
@@ -2356,8 +2540,11 @@
         <f t="shared" si="1"/>
         <v>23000</v>
       </c>
-    </row>
-    <row r="68" spans="3:7">
+      <c r="H67" s="2">
+        <v>693477600</v>
+      </c>
+    </row>
+    <row r="68" spans="3:8">
       <c r="C68" s="2">
         <v>63</v>
       </c>
@@ -2376,8 +2563,11 @@
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
-    </row>
-    <row r="69" spans="3:7">
+      <c r="H68" s="2">
+        <v>770456400</v>
+      </c>
+    </row>
+    <row r="69" spans="3:8">
       <c r="C69" s="2">
         <v>64</v>
       </c>
@@ -2396,8 +2586,11 @@
         <f t="shared" si="1"/>
         <v>26000</v>
       </c>
-    </row>
-    <row r="70" spans="3:7">
+      <c r="H69" s="2">
+        <v>851323200</v>
+      </c>
+    </row>
+    <row r="70" spans="3:8">
       <c r="C70" s="2">
         <v>65</v>
       </c>
@@ -2416,8 +2609,11 @@
         <f t="shared" ref="G70:G133" si="8">E70*10</f>
         <v>27500</v>
       </c>
-    </row>
-    <row r="71" spans="3:7">
+      <c r="H70" s="2">
+        <v>936078000</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8">
       <c r="C71" s="2">
         <v>66</v>
       </c>
@@ -2436,8 +2632,11 @@
         <f t="shared" si="8"/>
         <v>29000</v>
       </c>
-    </row>
-    <row r="72" spans="3:7">
+      <c r="H71" s="2">
+        <v>1024720800</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8">
       <c r="C72" s="2">
         <v>67</v>
       </c>
@@ -2456,8 +2655,11 @@
         <f t="shared" si="8"/>
         <v>30500</v>
       </c>
-    </row>
-    <row r="73" spans="3:7">
+      <c r="H72" s="2">
+        <v>1117251600</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8">
       <c r="C73" s="2">
         <v>68</v>
       </c>
@@ -2476,8 +2678,11 @@
         <f t="shared" si="8"/>
         <v>32000</v>
       </c>
-    </row>
-    <row r="74" spans="3:7">
+      <c r="H73" s="2">
+        <v>1215974400</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8">
       <c r="C74" s="2">
         <v>69</v>
       </c>
@@ -2496,8 +2701,11 @@
         <f t="shared" si="8"/>
         <v>33500</v>
       </c>
-    </row>
-    <row r="75" spans="3:7">
+      <c r="H74" s="2">
+        <v>1318801200</v>
+      </c>
+    </row>
+    <row r="75" spans="3:8">
       <c r="C75" s="5">
         <v>70</v>
       </c>
@@ -2516,8 +2724,11 @@
         <f t="shared" si="8"/>
         <v>35000</v>
       </c>
-    </row>
-    <row r="76" spans="3:7">
+      <c r="H75" s="2">
+        <v>1425732000</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8">
       <c r="C76" s="2">
         <v>71</v>
       </c>
@@ -2536,8 +2747,11 @@
         <f t="shared" si="8"/>
         <v>36500</v>
       </c>
-    </row>
-    <row r="77" spans="3:7">
+      <c r="H76" s="2">
+        <v>1536766800</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8">
       <c r="C77" s="2">
         <v>72</v>
       </c>
@@ -2556,8 +2770,11 @@
         <f t="shared" si="8"/>
         <v>38000</v>
       </c>
-    </row>
-    <row r="78" spans="3:7">
+      <c r="H77" s="2">
+        <v>1651905600</v>
+      </c>
+    </row>
+    <row r="78" spans="3:8">
       <c r="C78" s="2">
         <v>73</v>
       </c>
@@ -2576,8 +2793,11 @@
         <f t="shared" si="8"/>
         <v>39500</v>
       </c>
-    </row>
-    <row r="79" spans="3:7">
+      <c r="H78" s="2">
+        <v>1771148400</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8">
       <c r="C79" s="2">
         <v>74</v>
       </c>
@@ -2596,8 +2816,11 @@
         <f t="shared" si="8"/>
         <v>41000</v>
       </c>
-    </row>
-    <row r="80" spans="3:7">
+      <c r="H79" s="2">
+        <v>1894495200</v>
+      </c>
+    </row>
+    <row r="80" spans="3:8">
       <c r="C80" s="2">
         <v>75</v>
       </c>
@@ -2616,8 +2839,11 @@
         <f t="shared" si="8"/>
         <v>42500</v>
       </c>
-    </row>
-    <row r="81" spans="3:7">
+      <c r="H80" s="2">
+        <v>2025006000</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8">
       <c r="C81" s="2">
         <v>76</v>
       </c>
@@ -2636,8 +2862,11 @@
         <f t="shared" si="8"/>
         <v>44000</v>
       </c>
-    </row>
-    <row r="82" spans="3:7">
+      <c r="H81" s="2">
+        <v>2159836800</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8">
       <c r="C82" s="2">
         <v>77</v>
       </c>
@@ -2656,8 +2885,11 @@
         <f t="shared" si="8"/>
         <v>45500</v>
       </c>
-    </row>
-    <row r="83" spans="3:7">
+      <c r="H82" s="2">
+        <v>2298987600</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8">
       <c r="C83" s="2">
         <v>78</v>
       </c>
@@ -2676,8 +2908,11 @@
         <f t="shared" si="8"/>
         <v>47000</v>
       </c>
-    </row>
-    <row r="84" spans="3:7">
+      <c r="H83" s="2">
+        <v>2442458400</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8">
       <c r="C84" s="2">
         <v>79</v>
       </c>
@@ -2696,8 +2931,11 @@
         <f t="shared" si="8"/>
         <v>48500</v>
       </c>
-    </row>
-    <row r="85" spans="3:7">
+      <c r="H84" s="2">
+        <v>2590249200</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8">
       <c r="C85" s="5">
         <v>80</v>
       </c>
@@ -2716,8 +2954,11 @@
         <f t="shared" si="8"/>
         <v>50000</v>
       </c>
-    </row>
-    <row r="86" spans="3:7">
+      <c r="H85" s="2">
+        <v>2742360000</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8">
       <c r="C86" s="2">
         <v>81</v>
       </c>
@@ -2736,8 +2977,11 @@
         <f t="shared" si="8"/>
         <v>52500</v>
       </c>
-    </row>
-    <row r="87" spans="3:7">
+      <c r="H86" s="2">
+        <v>2955078000</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8">
       <c r="C87" s="2">
         <v>82</v>
       </c>
@@ -2756,8 +3000,11 @@
         <f t="shared" si="8"/>
         <v>55000</v>
       </c>
-    </row>
-    <row r="88" spans="3:7">
+      <c r="H87" s="2">
+        <v>3174996000</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8">
       <c r="C88" s="2">
         <v>83</v>
       </c>
@@ -2776,8 +3023,11 @@
         <f t="shared" si="8"/>
         <v>57500</v>
       </c>
-    </row>
-    <row r="89" spans="3:7">
+      <c r="H88" s="2">
+        <v>3406254000</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8">
       <c r="C89" s="2">
         <v>84</v>
       </c>
@@ -2796,8 +3046,11 @@
         <f t="shared" si="8"/>
         <v>60000</v>
       </c>
-    </row>
-    <row r="90" spans="3:7">
+      <c r="H89" s="2">
+        <v>3645072000</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8">
       <c r="C90" s="2">
         <v>85</v>
       </c>
@@ -2816,8 +3069,11 @@
         <f t="shared" si="8"/>
         <v>62500</v>
       </c>
-    </row>
-    <row r="91" spans="3:7">
+      <c r="H90" s="2">
+        <v>3891450000</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8">
       <c r="C91" s="2">
         <v>86</v>
       </c>
@@ -2836,8 +3092,11 @@
         <f t="shared" si="8"/>
         <v>65000</v>
       </c>
-    </row>
-    <row r="92" spans="3:7">
+      <c r="H91" s="2">
+        <v>4145388000</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8">
       <c r="C92" s="2">
         <v>87</v>
       </c>
@@ -2856,8 +3115,11 @@
         <f t="shared" si="8"/>
         <v>67500</v>
       </c>
-    </row>
-    <row r="93" spans="3:7">
+      <c r="H92" s="2">
+        <v>4406886000</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8">
       <c r="C93" s="2">
         <v>88</v>
       </c>
@@ -2876,8 +3138,11 @@
         <f t="shared" si="8"/>
         <v>70000</v>
       </c>
-    </row>
-    <row r="94" spans="3:7">
+      <c r="H93" s="2">
+        <v>4675944000</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8">
       <c r="C94" s="2">
         <v>89</v>
       </c>
@@ -2896,8 +3161,11 @@
         <f t="shared" si="8"/>
         <v>72500</v>
       </c>
-    </row>
-    <row r="95" spans="3:7">
+      <c r="H94" s="2">
+        <v>4952562000</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8">
       <c r="C95" s="2">
         <v>90</v>
       </c>
@@ -2916,8 +3184,11 @@
         <f t="shared" si="8"/>
         <v>75000</v>
       </c>
-    </row>
-    <row r="96" spans="3:7">
+      <c r="H95" s="2">
+        <v>5236740000</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8">
       <c r="C96" s="2">
         <v>91</v>
       </c>
@@ -2936,8 +3207,11 @@
         <f t="shared" si="8"/>
         <v>77500</v>
       </c>
-    </row>
-    <row r="97" spans="3:7">
+      <c r="H96" s="2">
+        <v>5534058000</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8">
       <c r="C97" s="2">
         <v>92</v>
       </c>
@@ -2956,8 +3230,11 @@
         <f t="shared" si="8"/>
         <v>80000</v>
       </c>
-    </row>
-    <row r="98" spans="3:7">
+      <c r="H97" s="2">
+        <v>5839296000</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8">
       <c r="C98" s="2">
         <v>93</v>
       </c>
@@ -2976,8 +3253,11 @@
         <f t="shared" si="8"/>
         <v>82500</v>
       </c>
-    </row>
-    <row r="99" spans="3:7">
+      <c r="H98" s="2">
+        <v>6152454000</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8">
       <c r="C99" s="2">
         <v>94</v>
       </c>
@@ -2996,8 +3276,11 @@
         <f t="shared" si="8"/>
         <v>85000</v>
       </c>
-    </row>
-    <row r="100" spans="3:7">
+      <c r="H99" s="2">
+        <v>6473532000</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8">
       <c r="C100" s="2">
         <v>95</v>
       </c>
@@ -3016,8 +3299,11 @@
         <f t="shared" si="8"/>
         <v>87500</v>
       </c>
-    </row>
-    <row r="101" spans="3:7">
+      <c r="H100" s="2">
+        <v>6802530000</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8">
       <c r="C101" s="2">
         <v>96</v>
       </c>
@@ -3036,8 +3322,11 @@
         <f t="shared" si="8"/>
         <v>90000</v>
       </c>
-    </row>
-    <row r="102" spans="3:7">
+      <c r="H101" s="2">
+        <v>7139448000</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8">
       <c r="C102" s="2">
         <v>97</v>
       </c>
@@ -3056,8 +3345,11 @@
         <f t="shared" si="8"/>
         <v>92500</v>
       </c>
-    </row>
-    <row r="103" spans="3:7">
+      <c r="H102" s="2">
+        <v>7484286000</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8">
       <c r="C103" s="2">
         <v>98</v>
       </c>
@@ -3076,8 +3368,11 @@
         <f t="shared" si="8"/>
         <v>95000</v>
       </c>
-    </row>
-    <row r="104" spans="3:7">
+      <c r="H103" s="2">
+        <v>7837044000</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8">
       <c r="C104" s="2">
         <v>99</v>
       </c>
@@ -3096,8 +3391,11 @@
         <f t="shared" si="8"/>
         <v>97500</v>
       </c>
-    </row>
-    <row r="105" spans="3:7">
+      <c r="H104" s="2">
+        <v>8197722000</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8">
       <c r="C105" s="5">
         <v>100</v>
       </c>
@@ -3116,8 +3414,11 @@
         <f t="shared" si="8"/>
         <v>100000</v>
       </c>
-    </row>
-    <row r="106" spans="3:7">
+      <c r="H105" s="2">
+        <v>8566320000</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8">
       <c r="C106" s="2">
         <v>101</v>
       </c>
@@ -3136,8 +3437,11 @@
         <f t="shared" si="8"/>
         <v>105000</v>
       </c>
-    </row>
-    <row r="107" spans="3:7">
+      <c r="H106" s="2">
+        <v>9168516000</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8">
       <c r="C107" s="2">
         <v>102</v>
       </c>
@@ -3156,8 +3460,11 @@
         <f t="shared" si="8"/>
         <v>110000</v>
       </c>
-    </row>
-    <row r="108" spans="3:7">
+      <c r="H107" s="2">
+        <v>9787272000</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8">
       <c r="C108" s="2">
         <v>103</v>
       </c>
@@ -3176,8 +3483,11 @@
         <f t="shared" si="8"/>
         <v>115000</v>
       </c>
-    </row>
-    <row r="109" spans="3:7">
+      <c r="H108" s="2">
+        <v>10422588000</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8">
       <c r="C109" s="2">
         <v>104</v>
       </c>
@@ -3196,8 +3506,11 @@
         <f t="shared" si="8"/>
         <v>120000</v>
       </c>
-    </row>
-    <row r="110" spans="3:7">
+      <c r="H109" s="2">
+        <v>11074464000</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8">
       <c r="C110" s="2">
         <v>105</v>
       </c>
@@ -3216,8 +3529,11 @@
         <f t="shared" si="8"/>
         <v>125000</v>
       </c>
-    </row>
-    <row r="111" spans="3:7">
+      <c r="H110" s="2">
+        <v>11742900000</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8">
       <c r="C111" s="2">
         <v>106</v>
       </c>
@@ -3236,8 +3552,11 @@
         <f t="shared" si="8"/>
         <v>130000</v>
       </c>
-    </row>
-    <row r="112" spans="3:7">
+      <c r="H111" s="2">
+        <v>12427896000</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8">
       <c r="C112" s="2">
         <v>107</v>
       </c>
@@ -3256,8 +3575,11 @@
         <f t="shared" si="8"/>
         <v>135000</v>
       </c>
-    </row>
-    <row r="113" spans="3:7">
+      <c r="H112" s="2">
+        <v>13129452000</v>
+      </c>
+    </row>
+    <row r="113" spans="3:8">
       <c r="C113" s="2">
         <v>108</v>
       </c>
@@ -3276,8 +3598,11 @@
         <f t="shared" si="8"/>
         <v>140000</v>
       </c>
-    </row>
-    <row r="114" spans="3:7">
+      <c r="H113" s="2">
+        <v>13847568000</v>
+      </c>
+    </row>
+    <row r="114" spans="3:8">
       <c r="C114" s="2">
         <v>109</v>
       </c>
@@ -3296,8 +3621,11 @@
         <f t="shared" si="8"/>
         <v>145000</v>
       </c>
-    </row>
-    <row r="115" spans="3:7">
+      <c r="H114" s="2">
+        <v>14582244000</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8">
       <c r="C115" s="2">
         <v>110</v>
       </c>
@@ -3316,8 +3644,11 @@
         <f t="shared" si="8"/>
         <v>150000</v>
       </c>
-    </row>
-    <row r="116" spans="3:7">
+      <c r="H115" s="2">
+        <v>15333480000</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8">
       <c r="C116" s="2">
         <v>111</v>
       </c>
@@ -3336,8 +3667,11 @@
         <f t="shared" si="8"/>
         <v>155000</v>
       </c>
-    </row>
-    <row r="117" spans="3:7">
+      <c r="H116" s="2">
+        <v>16112436000</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8">
       <c r="C117" s="2">
         <v>112</v>
       </c>
@@ -3356,8 +3690,11 @@
         <f t="shared" si="8"/>
         <v>160000</v>
       </c>
-    </row>
-    <row r="118" spans="3:7">
+      <c r="H117" s="2">
+        <v>16908672000</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8">
       <c r="C118" s="2">
         <v>113</v>
       </c>
@@ -3376,8 +3713,11 @@
         <f t="shared" si="8"/>
         <v>165000</v>
       </c>
-    </row>
-    <row r="119" spans="3:7">
+      <c r="H118" s="2">
+        <v>17722188000</v>
+      </c>
+    </row>
+    <row r="119" spans="3:8">
       <c r="C119" s="2">
         <v>114</v>
       </c>
@@ -3396,8 +3736,11 @@
         <f t="shared" si="8"/>
         <v>170000</v>
       </c>
-    </row>
-    <row r="120" spans="3:7">
+      <c r="H119" s="2">
+        <v>18552984000</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8">
       <c r="C120" s="2">
         <v>115</v>
       </c>
@@ -3416,8 +3759,11 @@
         <f t="shared" si="8"/>
         <v>175000</v>
       </c>
-    </row>
-    <row r="121" spans="3:7">
+      <c r="H120" s="2">
+        <v>19401060000</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8">
       <c r="C121" s="2">
         <v>116</v>
       </c>
@@ -3436,8 +3782,11 @@
         <f t="shared" si="8"/>
         <v>180000</v>
       </c>
-    </row>
-    <row r="122" spans="3:7">
+      <c r="H121" s="2">
+        <v>20266416000</v>
+      </c>
+    </row>
+    <row r="122" spans="3:8">
       <c r="C122" s="2">
         <v>117</v>
       </c>
@@ -3456,8 +3805,11 @@
         <f t="shared" si="8"/>
         <v>185000</v>
       </c>
-    </row>
-    <row r="123" spans="3:7">
+      <c r="H122" s="2">
+        <v>21149052000</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8">
       <c r="C123" s="2">
         <v>118</v>
       </c>
@@ -3476,8 +3828,11 @@
         <f t="shared" si="8"/>
         <v>190000</v>
       </c>
-    </row>
-    <row r="124" spans="3:7">
+      <c r="H123" s="2">
+        <v>22048968000</v>
+      </c>
+    </row>
+    <row r="124" spans="3:8">
       <c r="C124" s="2">
         <v>119</v>
       </c>
@@ -3496,8 +3851,11 @@
         <f t="shared" si="8"/>
         <v>195000</v>
       </c>
-    </row>
-    <row r="125" spans="3:7">
+      <c r="H124" s="2">
+        <v>22966164000</v>
+      </c>
+    </row>
+    <row r="125" spans="3:8">
       <c r="C125" s="5">
         <v>120</v>
       </c>
@@ -3516,8 +3874,11 @@
         <f t="shared" si="8"/>
         <v>200000</v>
       </c>
-    </row>
-    <row r="126" spans="3:7">
+      <c r="H125" s="2">
+        <v>23900640000</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8">
       <c r="C126" s="2">
         <v>121</v>
       </c>
@@ -3536,8 +3897,11 @@
         <f t="shared" si="8"/>
         <v>207500</v>
       </c>
-    </row>
-    <row r="127" spans="3:7">
+      <c r="H126" s="2">
+        <v>25155474000</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8">
       <c r="C127" s="2">
         <v>122</v>
       </c>
@@ -3556,8 +3920,11 @@
         <f t="shared" si="8"/>
         <v>215000</v>
       </c>
-    </row>
-    <row r="128" spans="3:7">
+      <c r="H127" s="2">
+        <v>26436228000</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8">
       <c r="C128" s="2">
         <v>123</v>
       </c>
@@ -3576,8 +3943,11 @@
         <f t="shared" si="8"/>
         <v>222500</v>
       </c>
-    </row>
-    <row r="129" spans="3:7">
+      <c r="H128" s="2">
+        <v>27742902000</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8">
       <c r="C129" s="2">
         <v>124</v>
       </c>
@@ -3596,8 +3966,11 @@
         <f t="shared" si="8"/>
         <v>230000</v>
       </c>
-    </row>
-    <row r="130" spans="3:7">
+      <c r="H129" s="2">
+        <v>29075496000</v>
+      </c>
+    </row>
+    <row r="130" spans="3:8">
       <c r="C130" s="2">
         <v>125</v>
       </c>
@@ -3616,8 +3989,11 @@
         <f t="shared" si="8"/>
         <v>237500</v>
       </c>
-    </row>
-    <row r="131" spans="3:7">
+      <c r="H130" s="2">
+        <v>30434010000</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8">
       <c r="C131" s="2">
         <v>126</v>
       </c>
@@ -3636,8 +4012,11 @@
         <f t="shared" si="8"/>
         <v>245000</v>
       </c>
-    </row>
-    <row r="132" spans="3:7">
+      <c r="H131" s="2">
+        <v>31818444000</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8">
       <c r="C132" s="2">
         <v>127</v>
       </c>
@@ -3656,8 +4035,11 @@
         <f t="shared" si="8"/>
         <v>252500</v>
       </c>
-    </row>
-    <row r="133" spans="3:7">
+      <c r="H132" s="2">
+        <v>33228798000</v>
+      </c>
+    </row>
+    <row r="133" spans="3:8">
       <c r="C133" s="2">
         <v>128</v>
       </c>
@@ -3676,8 +4058,11 @@
         <f t="shared" si="8"/>
         <v>260000</v>
       </c>
-    </row>
-    <row r="134" spans="3:7">
+      <c r="H133" s="2">
+        <v>34665072000</v>
+      </c>
+    </row>
+    <row r="134" spans="3:8">
       <c r="C134" s="2">
         <v>129</v>
       </c>
@@ -3696,8 +4081,11 @@
         <f t="shared" ref="G134:G197" si="13">E134*10</f>
         <v>267500</v>
       </c>
-    </row>
-    <row r="135" spans="3:7">
+      <c r="H134" s="2">
+        <v>36127266000</v>
+      </c>
+    </row>
+    <row r="135" spans="3:8">
       <c r="C135" s="2">
         <v>130</v>
       </c>
@@ -3716,8 +4104,11 @@
         <f t="shared" si="13"/>
         <v>275000</v>
       </c>
-    </row>
-    <row r="136" spans="3:7">
+      <c r="H135" s="2">
+        <v>37615380000</v>
+      </c>
+    </row>
+    <row r="136" spans="3:8">
       <c r="C136" s="2">
         <v>131</v>
       </c>
@@ -3736,8 +4127,11 @@
         <f t="shared" si="13"/>
         <v>282500</v>
       </c>
-    </row>
-    <row r="137" spans="3:7">
+      <c r="H136" s="2">
+        <v>39129414000</v>
+      </c>
+    </row>
+    <row r="137" spans="3:8">
       <c r="C137" s="2">
         <v>132</v>
       </c>
@@ -3756,8 +4150,11 @@
         <f t="shared" si="13"/>
         <v>290000</v>
       </c>
-    </row>
-    <row r="138" spans="3:7">
+      <c r="H137" s="2">
+        <v>40669368000</v>
+      </c>
+    </row>
+    <row r="138" spans="3:8">
       <c r="C138" s="2">
         <v>133</v>
       </c>
@@ -3776,8 +4173,11 @@
         <f t="shared" si="13"/>
         <v>297500</v>
       </c>
-    </row>
-    <row r="139" spans="3:7">
+      <c r="H138" s="2">
+        <v>42235242000</v>
+      </c>
+    </row>
+    <row r="139" spans="3:8">
       <c r="C139" s="2">
         <v>134</v>
       </c>
@@ -3796,8 +4196,11 @@
         <f t="shared" si="13"/>
         <v>305000</v>
       </c>
-    </row>
-    <row r="140" spans="3:7">
+      <c r="H139" s="2">
+        <v>43827036000</v>
+      </c>
+    </row>
+    <row r="140" spans="3:8">
       <c r="C140" s="2">
         <v>135</v>
       </c>
@@ -3816,8 +4219,11 @@
         <f t="shared" si="13"/>
         <v>312500</v>
       </c>
-    </row>
-    <row r="141" spans="3:7">
+      <c r="H140" s="2">
+        <v>45444750000</v>
+      </c>
+    </row>
+    <row r="141" spans="3:8">
       <c r="C141" s="2">
         <v>136</v>
       </c>
@@ -3836,8 +4242,11 @@
         <f t="shared" si="13"/>
         <v>320000</v>
       </c>
-    </row>
-    <row r="142" spans="3:7">
+      <c r="H141" s="2">
+        <v>47088384000</v>
+      </c>
+    </row>
+    <row r="142" spans="3:8">
       <c r="C142" s="2">
         <v>137</v>
       </c>
@@ -3856,8 +4265,11 @@
         <f t="shared" si="13"/>
         <v>327500</v>
       </c>
-    </row>
-    <row r="143" spans="3:7">
+      <c r="H142" s="2">
+        <v>48757938000</v>
+      </c>
+    </row>
+    <row r="143" spans="3:8">
       <c r="C143" s="2">
         <v>138</v>
       </c>
@@ -3876,8 +4288,11 @@
         <f t="shared" si="13"/>
         <v>335000</v>
       </c>
-    </row>
-    <row r="144" spans="3:7">
+      <c r="H143" s="2">
+        <v>50453412000</v>
+      </c>
+    </row>
+    <row r="144" spans="3:8">
       <c r="C144" s="2">
         <v>139</v>
       </c>
@@ -3896,8 +4311,11 @@
         <f t="shared" si="13"/>
         <v>342500</v>
       </c>
-    </row>
-    <row r="145" spans="3:7">
+      <c r="H144" s="2">
+        <v>52174806000</v>
+      </c>
+    </row>
+    <row r="145" spans="3:8">
       <c r="C145" s="5">
         <v>140</v>
       </c>
@@ -3916,8 +4334,11 @@
         <f t="shared" si="13"/>
         <v>350000</v>
       </c>
-    </row>
-    <row r="146" spans="3:7">
+      <c r="H145" s="2">
+        <v>53922120000</v>
+      </c>
+    </row>
+    <row r="146" spans="3:8">
       <c r="C146" s="2">
         <v>141</v>
       </c>
@@ -3936,8 +4357,11 @@
         <f t="shared" si="13"/>
         <v>357500</v>
       </c>
-    </row>
-    <row r="147" spans="3:7">
+      <c r="H146" s="2">
+        <v>55695354000</v>
+      </c>
+    </row>
+    <row r="147" spans="3:8">
       <c r="C147" s="2">
         <v>142</v>
       </c>
@@ -3956,8 +4380,11 @@
         <f t="shared" si="13"/>
         <v>365000</v>
       </c>
-    </row>
-    <row r="148" spans="3:7">
+      <c r="H147" s="2">
+        <v>57494508000</v>
+      </c>
+    </row>
+    <row r="148" spans="3:8">
       <c r="C148" s="2">
         <v>143</v>
       </c>
@@ -3976,8 +4403,11 @@
         <f t="shared" si="13"/>
         <v>372500</v>
       </c>
-    </row>
-    <row r="149" spans="3:7">
+      <c r="H148" s="2">
+        <v>59319582000</v>
+      </c>
+    </row>
+    <row r="149" spans="3:8">
       <c r="C149" s="2">
         <v>144</v>
       </c>
@@ -3996,8 +4426,11 @@
         <f t="shared" si="13"/>
         <v>380000</v>
       </c>
-    </row>
-    <row r="150" spans="3:7">
+      <c r="H149" s="2">
+        <v>61170576000</v>
+      </c>
+    </row>
+    <row r="150" spans="3:8">
       <c r="C150" s="2">
         <v>145</v>
       </c>
@@ -4016,8 +4449,11 @@
         <f t="shared" si="13"/>
         <v>387500</v>
       </c>
-    </row>
-    <row r="151" spans="3:7">
+      <c r="H150" s="2">
+        <v>63047490000</v>
+      </c>
+    </row>
+    <row r="151" spans="3:8">
       <c r="C151" s="2">
         <v>146</v>
       </c>
@@ -4036,8 +4472,11 @@
         <f t="shared" si="13"/>
         <v>395000</v>
       </c>
-    </row>
-    <row r="152" spans="3:7">
+      <c r="H151" s="2">
+        <v>64950324000</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
       <c r="C152" s="2">
         <v>147</v>
       </c>
@@ -4056,8 +4495,11 @@
         <f t="shared" si="13"/>
         <v>402500</v>
       </c>
-    </row>
-    <row r="153" spans="3:7">
+      <c r="H152" s="2">
+        <v>66879078000</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8">
       <c r="C153" s="2">
         <v>148</v>
       </c>
@@ -4076,8 +4518,11 @@
         <f t="shared" si="13"/>
         <v>410000</v>
       </c>
-    </row>
-    <row r="154" spans="3:7">
+      <c r="H153" s="2">
+        <v>68833752000</v>
+      </c>
+    </row>
+    <row r="154" spans="3:8">
       <c r="C154" s="2">
         <v>149</v>
       </c>
@@ -4096,8 +4541,11 @@
         <f t="shared" si="13"/>
         <v>417500</v>
       </c>
-    </row>
-    <row r="155" spans="3:7">
+      <c r="H154" s="2">
+        <v>70814346000</v>
+      </c>
+    </row>
+    <row r="155" spans="3:8">
       <c r="C155" s="2">
         <v>150</v>
       </c>
@@ -4116,8 +4564,11 @@
         <f t="shared" si="13"/>
         <v>425000</v>
       </c>
-    </row>
-    <row r="156" spans="3:7">
+      <c r="H155" s="2">
+        <v>72820860000</v>
+      </c>
+    </row>
+    <row r="156" spans="3:8">
       <c r="C156" s="2">
         <v>151</v>
       </c>
@@ -4136,8 +4587,11 @@
         <f t="shared" si="13"/>
         <v>432500</v>
       </c>
-    </row>
-    <row r="157" spans="3:7">
+      <c r="H156" s="2">
+        <v>74884434000</v>
+      </c>
+    </row>
+    <row r="157" spans="3:8">
       <c r="C157" s="2">
         <v>152</v>
       </c>
@@ -4156,8 +4610,11 @@
         <f t="shared" si="13"/>
         <v>440000</v>
       </c>
-    </row>
-    <row r="158" spans="3:7">
+      <c r="H157" s="2">
+        <v>76975008000</v>
+      </c>
+    </row>
+    <row r="158" spans="3:8">
       <c r="C158" s="2">
         <v>153</v>
       </c>
@@ -4176,8 +4633,11 @@
         <f t="shared" si="13"/>
         <v>447500</v>
       </c>
-    </row>
-    <row r="159" spans="3:7">
+      <c r="H158" s="2">
+        <v>79092582000</v>
+      </c>
+    </row>
+    <row r="159" spans="3:8">
       <c r="C159" s="2">
         <v>154</v>
       </c>
@@ -4196,8 +4656,11 @@
         <f t="shared" si="13"/>
         <v>455000</v>
       </c>
-    </row>
-    <row r="160" spans="3:7">
+      <c r="H159" s="2">
+        <v>81237156000</v>
+      </c>
+    </row>
+    <row r="160" spans="3:8">
       <c r="C160" s="2">
         <v>155</v>
       </c>
@@ -4216,8 +4679,11 @@
         <f t="shared" si="13"/>
         <v>462500</v>
       </c>
-    </row>
-    <row r="161" spans="3:7">
+      <c r="H160" s="2">
+        <v>83408730000</v>
+      </c>
+    </row>
+    <row r="161" spans="3:8">
       <c r="C161" s="2">
         <v>156</v>
       </c>
@@ -4236,8 +4702,11 @@
         <f t="shared" si="13"/>
         <v>470000</v>
       </c>
-    </row>
-    <row r="162" spans="3:7">
+      <c r="H161" s="2">
+        <v>85607304000</v>
+      </c>
+    </row>
+    <row r="162" spans="3:8">
       <c r="C162" s="2">
         <v>157</v>
       </c>
@@ -4256,8 +4725,11 @@
         <f t="shared" si="13"/>
         <v>477500</v>
       </c>
-    </row>
-    <row r="163" spans="3:7">
+      <c r="H162" s="2">
+        <v>87832878000</v>
+      </c>
+    </row>
+    <row r="163" spans="3:8">
       <c r="C163" s="2">
         <v>158</v>
       </c>
@@ -4276,8 +4748,11 @@
         <f t="shared" si="13"/>
         <v>485000</v>
       </c>
-    </row>
-    <row r="164" spans="3:7">
+      <c r="H163" s="2">
+        <v>90085452000</v>
+      </c>
+    </row>
+    <row r="164" spans="3:8">
       <c r="C164" s="2">
         <v>159</v>
       </c>
@@ -4296,8 +4771,11 @@
         <f t="shared" si="13"/>
         <v>492500</v>
       </c>
-    </row>
-    <row r="165" spans="3:7">
+      <c r="H164" s="2">
+        <v>92365026000</v>
+      </c>
+    </row>
+    <row r="165" spans="3:8">
       <c r="C165" s="5">
         <v>160</v>
       </c>
@@ -4316,8 +4794,11 @@
         <f t="shared" si="13"/>
         <v>500000</v>
       </c>
-    </row>
-    <row r="166" spans="3:7">
+      <c r="H165" s="2">
+        <v>94671600000</v>
+      </c>
+    </row>
+    <row r="166" spans="3:8">
       <c r="C166" s="2">
         <v>161</v>
       </c>
@@ -4336,8 +4817,11 @@
         <f t="shared" si="13"/>
         <v>512500</v>
       </c>
-    </row>
-    <row r="167" spans="3:7">
+      <c r="H166" s="2">
+        <v>97960890000</v>
+      </c>
+    </row>
+    <row r="167" spans="3:8">
       <c r="C167" s="2">
         <v>162</v>
       </c>
@@ -4356,8 +4840,11 @@
         <f t="shared" si="13"/>
         <v>525000</v>
       </c>
-    </row>
-    <row r="168" spans="3:7">
+      <c r="H167" s="2">
+        <v>101295180000</v>
+      </c>
+    </row>
+    <row r="168" spans="3:8">
       <c r="C168" s="2">
         <v>163</v>
       </c>
@@ -4376,8 +4863,11 @@
         <f t="shared" si="13"/>
         <v>537500</v>
       </c>
-    </row>
-    <row r="169" spans="3:7">
+      <c r="H168" s="2">
+        <v>104674470000</v>
+      </c>
+    </row>
+    <row r="169" spans="3:8">
       <c r="C169" s="2">
         <v>164</v>
       </c>
@@ -4396,8 +4886,11 @@
         <f t="shared" si="13"/>
         <v>550000</v>
       </c>
-    </row>
-    <row r="170" spans="3:7">
+      <c r="H169" s="2">
+        <v>108098760000</v>
+      </c>
+    </row>
+    <row r="170" spans="3:8">
       <c r="C170" s="2">
         <v>165</v>
       </c>
@@ -4416,8 +4909,11 @@
         <f t="shared" si="13"/>
         <v>562500</v>
       </c>
-    </row>
-    <row r="171" spans="3:7">
+      <c r="H170" s="2">
+        <v>111568050000</v>
+      </c>
+    </row>
+    <row r="171" spans="3:8">
       <c r="C171" s="2">
         <v>166</v>
       </c>
@@ -4436,8 +4932,11 @@
         <f t="shared" si="13"/>
         <v>575000</v>
       </c>
-    </row>
-    <row r="172" spans="3:7">
+      <c r="H171" s="2">
+        <v>115082340000</v>
+      </c>
+    </row>
+    <row r="172" spans="3:8">
       <c r="C172" s="2">
         <v>167</v>
       </c>
@@ -4456,8 +4955,11 @@
         <f t="shared" si="13"/>
         <v>587500</v>
       </c>
-    </row>
-    <row r="173" spans="3:7">
+      <c r="H172" s="2">
+        <v>118641630000</v>
+      </c>
+    </row>
+    <row r="173" spans="3:8">
       <c r="C173" s="2">
         <v>168</v>
       </c>
@@ -4476,8 +4978,11 @@
         <f t="shared" si="13"/>
         <v>600000</v>
       </c>
-    </row>
-    <row r="174" spans="3:7">
+      <c r="H173" s="2">
+        <v>122245920000</v>
+      </c>
+    </row>
+    <row r="174" spans="3:8">
       <c r="C174" s="2">
         <v>169</v>
       </c>
@@ -4496,8 +5001,11 @@
         <f t="shared" si="13"/>
         <v>612500</v>
       </c>
-    </row>
-    <row r="175" spans="3:7">
+      <c r="H174" s="2">
+        <v>125895210000</v>
+      </c>
+    </row>
+    <row r="175" spans="3:8">
       <c r="C175" s="2">
         <v>170</v>
       </c>
@@ -4516,8 +5024,11 @@
         <f t="shared" si="13"/>
         <v>625000</v>
       </c>
-    </row>
-    <row r="176" spans="3:7">
+      <c r="H175" s="2">
+        <v>129589500000</v>
+      </c>
+    </row>
+    <row r="176" spans="3:8">
       <c r="C176" s="2">
         <v>171</v>
       </c>
@@ -4536,8 +5047,11 @@
         <f t="shared" si="13"/>
         <v>637500</v>
       </c>
-    </row>
-    <row r="177" spans="3:7">
+      <c r="H176" s="2">
+        <v>133374690000</v>
+      </c>
+    </row>
+    <row r="177" spans="3:8">
       <c r="C177" s="2">
         <v>172</v>
       </c>
@@ -4556,8 +5070,11 @@
         <f t="shared" si="13"/>
         <v>650000</v>
       </c>
-    </row>
-    <row r="178" spans="3:7">
+      <c r="H177" s="2">
+        <v>137206680000</v>
+      </c>
+    </row>
+    <row r="178" spans="3:8">
       <c r="C178" s="2">
         <v>173</v>
       </c>
@@ -4576,8 +5093,11 @@
         <f t="shared" si="13"/>
         <v>662500</v>
       </c>
-    </row>
-    <row r="179" spans="3:7">
+      <c r="H178" s="2">
+        <v>141085470000</v>
+      </c>
+    </row>
+    <row r="179" spans="3:8">
       <c r="C179" s="2">
         <v>174</v>
       </c>
@@ -4596,8 +5116,11 @@
         <f t="shared" si="13"/>
         <v>675000</v>
       </c>
-    </row>
-    <row r="180" spans="3:7">
+      <c r="H179" s="2">
+        <v>145011060000</v>
+      </c>
+    </row>
+    <row r="180" spans="3:8">
       <c r="C180" s="2">
         <v>175</v>
       </c>
@@ -4616,8 +5139,11 @@
         <f t="shared" si="13"/>
         <v>687500</v>
       </c>
-    </row>
-    <row r="181" spans="3:7">
+      <c r="H180" s="2">
+        <v>148983450000</v>
+      </c>
+    </row>
+    <row r="181" spans="3:8">
       <c r="C181" s="2">
         <v>176</v>
       </c>
@@ -4636,8 +5162,11 @@
         <f t="shared" si="13"/>
         <v>700000</v>
       </c>
-    </row>
-    <row r="182" spans="3:7">
+      <c r="H181" s="2">
+        <v>153002640000</v>
+      </c>
+    </row>
+    <row r="182" spans="3:8">
       <c r="C182" s="2">
         <v>177</v>
       </c>
@@ -4656,8 +5185,11 @@
         <f t="shared" si="13"/>
         <v>712500</v>
       </c>
-    </row>
-    <row r="183" spans="3:7">
+      <c r="H182" s="2">
+        <v>157068630000</v>
+      </c>
+    </row>
+    <row r="183" spans="3:8">
       <c r="C183" s="2">
         <v>178</v>
       </c>
@@ -4676,8 +5208,11 @@
         <f t="shared" si="13"/>
         <v>725000</v>
       </c>
-    </row>
-    <row r="184" spans="3:7">
+      <c r="H183" s="2">
+        <v>161181420000</v>
+      </c>
+    </row>
+    <row r="184" spans="3:8">
       <c r="C184" s="2">
         <v>179</v>
       </c>
@@ -4696,8 +5231,11 @@
         <f t="shared" si="13"/>
         <v>737500</v>
       </c>
-    </row>
-    <row r="185" spans="3:7">
+      <c r="H184" s="2">
+        <v>165341010000</v>
+      </c>
+    </row>
+    <row r="185" spans="3:8">
       <c r="C185" s="5">
         <v>180</v>
       </c>
@@ -4716,8 +5254,11 @@
         <f t="shared" si="13"/>
         <v>750000</v>
       </c>
-    </row>
-    <row r="186" spans="3:7">
+      <c r="H185" s="2">
+        <v>169547400000</v>
+      </c>
+    </row>
+    <row r="186" spans="3:8">
       <c r="C186" s="2">
         <v>181</v>
       </c>
@@ -4736,8 +5277,11 @@
         <f t="shared" si="13"/>
         <v>762500</v>
       </c>
-    </row>
-    <row r="187" spans="3:7">
+      <c r="H186" s="2">
+        <v>173800590000</v>
+      </c>
+    </row>
+    <row r="187" spans="3:8">
       <c r="C187" s="2">
         <v>182</v>
       </c>
@@ -4756,8 +5300,11 @@
         <f t="shared" si="13"/>
         <v>775000</v>
       </c>
-    </row>
-    <row r="188" spans="3:7">
+      <c r="H187" s="2">
+        <v>178100580000</v>
+      </c>
+    </row>
+    <row r="188" spans="3:8">
       <c r="C188" s="2">
         <v>183</v>
       </c>
@@ -4776,8 +5323,11 @@
         <f t="shared" si="13"/>
         <v>787500</v>
       </c>
-    </row>
-    <row r="189" spans="3:7">
+      <c r="H188" s="2">
+        <v>182447370000</v>
+      </c>
+    </row>
+    <row r="189" spans="3:8">
       <c r="C189" s="2">
         <v>184</v>
       </c>
@@ -4796,8 +5346,11 @@
         <f t="shared" si="13"/>
         <v>800000</v>
       </c>
-    </row>
-    <row r="190" spans="3:7">
+      <c r="H189" s="2">
+        <v>186840960000</v>
+      </c>
+    </row>
+    <row r="190" spans="3:8">
       <c r="C190" s="2">
         <v>185</v>
       </c>
@@ -4816,8 +5369,11 @@
         <f t="shared" si="13"/>
         <v>812500</v>
       </c>
-    </row>
-    <row r="191" spans="3:7">
+      <c r="H190" s="2">
+        <v>191281350000</v>
+      </c>
+    </row>
+    <row r="191" spans="3:8">
       <c r="C191" s="2">
         <v>186</v>
       </c>
@@ -4836,8 +5392,11 @@
         <f t="shared" si="13"/>
         <v>825000</v>
       </c>
-    </row>
-    <row r="192" spans="3:7">
+      <c r="H191" s="2">
+        <v>195768540000</v>
+      </c>
+    </row>
+    <row r="192" spans="3:8">
       <c r="C192" s="2">
         <v>187</v>
       </c>
@@ -4856,8 +5415,11 @@
         <f t="shared" si="13"/>
         <v>837500</v>
       </c>
-    </row>
-    <row r="193" spans="3:7">
+      <c r="H192" s="2">
+        <v>200302530000</v>
+      </c>
+    </row>
+    <row r="193" spans="3:8">
       <c r="C193" s="2">
         <v>188</v>
       </c>
@@ -4876,8 +5438,11 @@
         <f t="shared" si="13"/>
         <v>850000</v>
       </c>
-    </row>
-    <row r="194" spans="3:7">
+      <c r="H193" s="2">
+        <v>204883320000</v>
+      </c>
+    </row>
+    <row r="194" spans="3:8">
       <c r="C194" s="2">
         <v>189</v>
       </c>
@@ -4896,8 +5461,11 @@
         <f t="shared" si="13"/>
         <v>862500</v>
       </c>
-    </row>
-    <row r="195" spans="3:7">
+      <c r="H194" s="2">
+        <v>209510910000</v>
+      </c>
+    </row>
+    <row r="195" spans="3:8">
       <c r="C195" s="2">
         <v>190</v>
       </c>
@@ -4916,8 +5484,11 @@
         <f t="shared" si="13"/>
         <v>875000</v>
       </c>
-    </row>
-    <row r="196" spans="3:7">
+      <c r="H195" s="2">
+        <v>214185300000</v>
+      </c>
+    </row>
+    <row r="196" spans="3:8">
       <c r="C196" s="2">
         <v>191</v>
       </c>
@@ -4936,8 +5507,11 @@
         <f t="shared" si="13"/>
         <v>887500</v>
       </c>
-    </row>
-    <row r="197" spans="3:7">
+      <c r="H196" s="2">
+        <v>218970390000</v>
+      </c>
+    </row>
+    <row r="197" spans="3:8">
       <c r="C197" s="2">
         <v>192</v>
       </c>
@@ -4956,8 +5530,11 @@
         <f t="shared" si="13"/>
         <v>900000</v>
       </c>
-    </row>
-    <row r="198" spans="3:7">
+      <c r="H197" s="2">
+        <v>223804080000</v>
+      </c>
+    </row>
+    <row r="198" spans="3:8">
       <c r="C198" s="2">
         <v>193</v>
       </c>
@@ -4976,8 +5553,11 @@
         <f t="shared" ref="G198:G261" si="16">E198*10</f>
         <v>912500</v>
       </c>
-    </row>
-    <row r="199" spans="3:7">
+      <c r="H198" s="2">
+        <v>228686370000</v>
+      </c>
+    </row>
+    <row r="199" spans="3:8">
       <c r="C199" s="2">
         <v>194</v>
       </c>
@@ -4996,8 +5576,11 @@
         <f t="shared" si="16"/>
         <v>925000</v>
       </c>
-    </row>
-    <row r="200" spans="3:7">
+      <c r="H199" s="2">
+        <v>233617260000</v>
+      </c>
+    </row>
+    <row r="200" spans="3:8">
       <c r="C200" s="2">
         <v>195</v>
       </c>
@@ -5016,8 +5599,11 @@
         <f t="shared" si="16"/>
         <v>937500</v>
       </c>
-    </row>
-    <row r="201" spans="3:7">
+      <c r="H200" s="2">
+        <v>238596750000</v>
+      </c>
+    </row>
+    <row r="201" spans="3:8">
       <c r="C201" s="2">
         <v>196</v>
       </c>
@@ -5036,8 +5622,11 @@
         <f t="shared" si="16"/>
         <v>950000</v>
       </c>
-    </row>
-    <row r="202" spans="3:7">
+      <c r="H201" s="2">
+        <v>243624840000</v>
+      </c>
+    </row>
+    <row r="202" spans="3:8">
       <c r="C202" s="2">
         <v>197</v>
       </c>
@@ -5056,8 +5645,11 @@
         <f t="shared" si="16"/>
         <v>962500</v>
       </c>
-    </row>
-    <row r="203" spans="3:7">
+      <c r="H202" s="2">
+        <v>248701530000</v>
+      </c>
+    </row>
+    <row r="203" spans="3:8">
       <c r="C203" s="2">
         <v>198</v>
       </c>
@@ -5076,8 +5668,11 @@
         <f t="shared" si="16"/>
         <v>975000</v>
       </c>
-    </row>
-    <row r="204" spans="3:7">
+      <c r="H203" s="2">
+        <v>253826820000</v>
+      </c>
+    </row>
+    <row r="204" spans="3:8">
       <c r="C204" s="2">
         <v>199</v>
       </c>
@@ -5096,8 +5691,11 @@
         <f t="shared" si="16"/>
         <v>987500</v>
       </c>
-    </row>
-    <row r="205" spans="3:7">
+      <c r="H204" s="2">
+        <v>259000710000</v>
+      </c>
+    </row>
+    <row r="205" spans="3:8">
       <c r="C205" s="5">
         <v>200</v>
       </c>
@@ -5116,8 +5714,11 @@
         <f t="shared" si="16"/>
         <v>1000000</v>
       </c>
-    </row>
-    <row r="206" spans="3:7">
+      <c r="H205" s="2">
+        <v>264223200000</v>
+      </c>
+    </row>
+    <row r="206" spans="3:8">
       <c r="C206" s="2">
         <v>201</v>
       </c>
@@ -5136,8 +5737,11 @@
         <f t="shared" si="16"/>
         <v>1040000</v>
       </c>
-    </row>
-    <row r="207" spans="3:7">
+      <c r="H206" s="2">
+        <v>276813888000</v>
+      </c>
+    </row>
+    <row r="207" spans="3:8">
       <c r="C207" s="2">
         <v>202</v>
       </c>
@@ -5156,8 +5760,11 @@
         <f t="shared" si="16"/>
         <v>1080000</v>
       </c>
-    </row>
-    <row r="208" spans="3:7">
+      <c r="H207" s="2">
+        <v>289560096000</v>
+      </c>
+    </row>
+    <row r="208" spans="3:8">
       <c r="C208" s="2">
         <v>203</v>
       </c>
@@ -5176,8 +5783,11 @@
         <f t="shared" si="16"/>
         <v>1120000</v>
       </c>
-    </row>
-    <row r="209" spans="3:7">
+      <c r="H208" s="2">
+        <v>302461824000</v>
+      </c>
+    </row>
+    <row r="209" spans="3:8">
       <c r="C209" s="2">
         <v>204</v>
       </c>
@@ -5196,8 +5806,11 @@
         <f t="shared" si="16"/>
         <v>1160000</v>
       </c>
-    </row>
-    <row r="210" spans="3:7">
+      <c r="H209" s="2">
+        <v>315519072000</v>
+      </c>
+    </row>
+    <row r="210" spans="3:8">
       <c r="C210" s="2">
         <v>205</v>
       </c>
@@ -5216,8 +5829,11 @@
         <f t="shared" si="16"/>
         <v>1200000</v>
       </c>
-    </row>
-    <row r="211" spans="3:7">
+      <c r="H210" s="2">
+        <v>328731840000</v>
+      </c>
+    </row>
+    <row r="211" spans="3:8">
       <c r="C211" s="2">
         <v>206</v>
       </c>
@@ -5236,8 +5852,11 @@
         <f t="shared" si="16"/>
         <v>1240000</v>
       </c>
-    </row>
-    <row r="212" spans="3:7">
+      <c r="H211" s="2">
+        <v>342100128000</v>
+      </c>
+    </row>
+    <row r="212" spans="3:8">
       <c r="C212" s="2">
         <v>207</v>
       </c>
@@ -5256,8 +5875,11 @@
         <f t="shared" si="16"/>
         <v>1280000</v>
       </c>
-    </row>
-    <row r="213" spans="3:7">
+      <c r="H212" s="2">
+        <v>355623936000</v>
+      </c>
+    </row>
+    <row r="213" spans="3:8">
       <c r="C213" s="2">
         <v>208</v>
       </c>
@@ -5276,8 +5898,11 @@
         <f t="shared" si="16"/>
         <v>1320000</v>
       </c>
-    </row>
-    <row r="214" spans="3:7">
+      <c r="H213" s="2">
+        <v>369303264000</v>
+      </c>
+    </row>
+    <row r="214" spans="3:8">
       <c r="C214" s="2">
         <v>209</v>
       </c>
@@ -5296,8 +5921,11 @@
         <f t="shared" si="16"/>
         <v>1360000</v>
       </c>
-    </row>
-    <row r="215" spans="3:7">
+      <c r="H214" s="2">
+        <v>383138112000</v>
+      </c>
+    </row>
+    <row r="215" spans="3:8">
       <c r="C215" s="2">
         <v>210</v>
       </c>
@@ -5316,8 +5944,11 @@
         <f t="shared" si="16"/>
         <v>1400000</v>
       </c>
-    </row>
-    <row r="216" spans="3:7">
+      <c r="H215" s="2">
+        <v>397128480000</v>
+      </c>
+    </row>
+    <row r="216" spans="3:8">
       <c r="C216" s="2">
         <v>211</v>
       </c>
@@ -5336,8 +5967,11 @@
         <f t="shared" si="16"/>
         <v>1440000</v>
       </c>
-    </row>
-    <row r="217" spans="3:7">
+      <c r="H216" s="2">
+        <v>411378048000</v>
+      </c>
+    </row>
+    <row r="217" spans="3:8">
       <c r="C217" s="2">
         <v>212</v>
       </c>
@@ -5356,8 +5990,11 @@
         <f t="shared" si="16"/>
         <v>1480000</v>
       </c>
-    </row>
-    <row r="218" spans="3:7">
+      <c r="H217" s="2">
+        <v>425788896000</v>
+      </c>
+    </row>
+    <row r="218" spans="3:8">
       <c r="C218" s="2">
         <v>213</v>
       </c>
@@ -5376,8 +6013,11 @@
         <f t="shared" si="16"/>
         <v>1520000</v>
       </c>
-    </row>
-    <row r="219" spans="3:7">
+      <c r="H218" s="2">
+        <v>440361024000</v>
+      </c>
+    </row>
+    <row r="219" spans="3:8">
       <c r="C219" s="2">
         <v>214</v>
       </c>
@@ -5396,8 +6036,11 @@
         <f t="shared" si="16"/>
         <v>1560000</v>
       </c>
-    </row>
-    <row r="220" spans="3:7">
+      <c r="H219" s="2">
+        <v>455094432000</v>
+      </c>
+    </row>
+    <row r="220" spans="3:8">
       <c r="C220" s="2">
         <v>215</v>
       </c>
@@ -5416,8 +6059,11 @@
         <f t="shared" si="16"/>
         <v>1600000</v>
       </c>
-    </row>
-    <row r="221" spans="3:7">
+      <c r="H220" s="2">
+        <v>469989120000</v>
+      </c>
+    </row>
+    <row r="221" spans="3:8">
       <c r="C221" s="2">
         <v>216</v>
       </c>
@@ -5436,8 +6082,11 @@
         <f t="shared" si="16"/>
         <v>1640000</v>
       </c>
-    </row>
-    <row r="222" spans="3:7">
+      <c r="H221" s="2">
+        <v>485045088000</v>
+      </c>
+    </row>
+    <row r="222" spans="3:8">
       <c r="C222" s="2">
         <v>217</v>
       </c>
@@ -5456,8 +6105,11 @@
         <f t="shared" si="16"/>
         <v>1680000</v>
       </c>
-    </row>
-    <row r="223" spans="3:7">
+      <c r="H222" s="2">
+        <v>500262336000</v>
+      </c>
+    </row>
+    <row r="223" spans="3:8">
       <c r="C223" s="2">
         <v>218</v>
       </c>
@@ -5476,8 +6128,11 @@
         <f t="shared" si="16"/>
         <v>1720000</v>
       </c>
-    </row>
-    <row r="224" spans="3:7">
+      <c r="H223" s="2">
+        <v>515640864000</v>
+      </c>
+    </row>
+    <row r="224" spans="3:8">
       <c r="C224" s="2">
         <v>219</v>
       </c>
@@ -5496,8 +6151,11 @@
         <f t="shared" si="16"/>
         <v>1760000</v>
       </c>
-    </row>
-    <row r="225" spans="3:7">
+      <c r="H224" s="2">
+        <v>531180672000</v>
+      </c>
+    </row>
+    <row r="225" spans="3:8">
       <c r="C225" s="2">
         <v>220</v>
       </c>
@@ -5516,8 +6174,11 @@
         <f t="shared" si="16"/>
         <v>1800000</v>
       </c>
-    </row>
-    <row r="226" spans="3:7">
+      <c r="H225" s="2">
+        <v>546881760000</v>
+      </c>
+    </row>
+    <row r="226" spans="3:8">
       <c r="C226" s="2">
         <v>221</v>
       </c>
@@ -5536,8 +6197,11 @@
         <f t="shared" si="16"/>
         <v>1840000</v>
       </c>
-    </row>
-    <row r="227" spans="3:7">
+      <c r="H226" s="2">
+        <v>562744128000</v>
+      </c>
+    </row>
+    <row r="227" spans="3:8">
       <c r="C227" s="2">
         <v>222</v>
       </c>
@@ -5556,8 +6220,11 @@
         <f t="shared" si="16"/>
         <v>1880000</v>
       </c>
-    </row>
-    <row r="228" spans="3:7">
+      <c r="H227" s="2">
+        <v>578767776000</v>
+      </c>
+    </row>
+    <row r="228" spans="3:8">
       <c r="C228" s="2">
         <v>223</v>
       </c>
@@ -5576,8 +6243,11 @@
         <f t="shared" si="16"/>
         <v>1920000</v>
       </c>
-    </row>
-    <row r="229" spans="3:7">
+      <c r="H228" s="2">
+        <v>594952704000</v>
+      </c>
+    </row>
+    <row r="229" spans="3:8">
       <c r="C229" s="2">
         <v>224</v>
       </c>
@@ -5596,8 +6266,11 @@
         <f t="shared" si="16"/>
         <v>1960000</v>
       </c>
-    </row>
-    <row r="230" spans="3:7">
+      <c r="H229" s="2">
+        <v>611298912000</v>
+      </c>
+    </row>
+    <row r="230" spans="3:8">
       <c r="C230" s="2">
         <v>225</v>
       </c>
@@ -5616,8 +6289,11 @@
         <f t="shared" si="16"/>
         <v>2000000</v>
       </c>
-    </row>
-    <row r="231" spans="3:7">
+      <c r="H230" s="2">
+        <v>627806400000</v>
+      </c>
+    </row>
+    <row r="231" spans="3:8">
       <c r="C231" s="2">
         <v>226</v>
       </c>
@@ -5636,8 +6312,11 @@
         <f t="shared" si="16"/>
         <v>2040000</v>
       </c>
-    </row>
-    <row r="232" spans="3:7">
+      <c r="H231" s="2">
+        <v>644475168000</v>
+      </c>
+    </row>
+    <row r="232" spans="3:8">
       <c r="C232" s="2">
         <v>227</v>
       </c>
@@ -5656,8 +6335,11 @@
         <f t="shared" si="16"/>
         <v>2080000</v>
       </c>
-    </row>
-    <row r="233" spans="3:7">
+      <c r="H232" s="2">
+        <v>661305216000</v>
+      </c>
+    </row>
+    <row r="233" spans="3:8">
       <c r="C233" s="2">
         <v>228</v>
       </c>
@@ -5676,8 +6358,11 @@
         <f t="shared" si="16"/>
         <v>2120000</v>
       </c>
-    </row>
-    <row r="234" spans="3:7">
+      <c r="H233" s="2">
+        <v>678296544000</v>
+      </c>
+    </row>
+    <row r="234" spans="3:8">
       <c r="C234" s="2">
         <v>229</v>
       </c>
@@ -5696,8 +6381,11 @@
         <f t="shared" si="16"/>
         <v>2160000</v>
       </c>
-    </row>
-    <row r="235" spans="3:7">
+      <c r="H234" s="2">
+        <v>695449152000</v>
+      </c>
+    </row>
+    <row r="235" spans="3:8">
       <c r="C235" s="2">
         <v>230</v>
       </c>
@@ -5716,8 +6404,11 @@
         <f t="shared" si="16"/>
         <v>2200000</v>
       </c>
-    </row>
-    <row r="236" spans="3:7">
+      <c r="H235" s="2">
+        <v>712763040000</v>
+      </c>
+    </row>
+    <row r="236" spans="3:8">
       <c r="C236" s="2">
         <v>231</v>
       </c>
@@ -5736,8 +6427,11 @@
         <f t="shared" si="16"/>
         <v>2240000</v>
       </c>
-    </row>
-    <row r="237" spans="3:7">
+      <c r="H236" s="2">
+        <v>730399488000</v>
+      </c>
+    </row>
+    <row r="237" spans="3:8">
       <c r="C237" s="2">
         <v>232</v>
       </c>
@@ -5756,8 +6450,11 @@
         <f t="shared" si="16"/>
         <v>2280000</v>
       </c>
-    </row>
-    <row r="238" spans="3:7">
+      <c r="H237" s="2">
+        <v>748202976000</v>
+      </c>
+    </row>
+    <row r="238" spans="3:8">
       <c r="C238" s="2">
         <v>233</v>
       </c>
@@ -5776,8 +6473,11 @@
         <f t="shared" si="16"/>
         <v>2320000</v>
       </c>
-    </row>
-    <row r="239" spans="3:7">
+      <c r="H238" s="2">
+        <v>766173504000</v>
+      </c>
+    </row>
+    <row r="239" spans="3:8">
       <c r="C239" s="2">
         <v>234</v>
       </c>
@@ -5796,8 +6496,11 @@
         <f t="shared" si="16"/>
         <v>2360000</v>
       </c>
-    </row>
-    <row r="240" spans="3:7">
+      <c r="H239" s="2">
+        <v>784311072000</v>
+      </c>
+    </row>
+    <row r="240" spans="3:8">
       <c r="C240" s="2">
         <v>235</v>
       </c>
@@ -5816,8 +6519,11 @@
         <f t="shared" si="16"/>
         <v>2400000</v>
       </c>
-    </row>
-    <row r="241" spans="3:7">
+      <c r="H240" s="2">
+        <v>802615680000</v>
+      </c>
+    </row>
+    <row r="241" spans="3:8">
       <c r="C241" s="2">
         <v>236</v>
       </c>
@@ -5836,8 +6542,11 @@
         <f t="shared" si="16"/>
         <v>2440000</v>
       </c>
-    </row>
-    <row r="242" spans="3:7">
+      <c r="H241" s="2">
+        <v>821087328000</v>
+      </c>
+    </row>
+    <row r="242" spans="3:8">
       <c r="C242" s="2">
         <v>237</v>
       </c>
@@ -5856,8 +6565,11 @@
         <f t="shared" si="16"/>
         <v>2480000</v>
       </c>
-    </row>
-    <row r="243" spans="3:7">
+      <c r="H242" s="2">
+        <v>839726016000</v>
+      </c>
+    </row>
+    <row r="243" spans="3:8">
       <c r="C243" s="2">
         <v>238</v>
       </c>
@@ -5876,8 +6588,11 @@
         <f t="shared" si="16"/>
         <v>2520000</v>
       </c>
-    </row>
-    <row r="244" spans="3:7">
+      <c r="H243" s="2">
+        <v>858531744000</v>
+      </c>
+    </row>
+    <row r="244" spans="3:8">
       <c r="C244" s="2">
         <v>239</v>
       </c>
@@ -5896,8 +6611,11 @@
         <f t="shared" si="16"/>
         <v>2560000</v>
       </c>
-    </row>
-    <row r="245" spans="3:7">
+      <c r="H244" s="2">
+        <v>877504512000</v>
+      </c>
+    </row>
+    <row r="245" spans="3:8">
       <c r="C245" s="2">
         <v>240</v>
       </c>
@@ -5916,8 +6634,11 @@
         <f t="shared" si="16"/>
         <v>2600000</v>
       </c>
-    </row>
-    <row r="246" spans="3:7">
+      <c r="H245" s="2">
+        <v>896644320000</v>
+      </c>
+    </row>
+    <row r="246" spans="3:8">
       <c r="C246" s="2">
         <v>241</v>
       </c>
@@ -5936,8 +6657,11 @@
         <f t="shared" si="16"/>
         <v>2640000</v>
       </c>
-    </row>
-    <row r="247" spans="3:7">
+      <c r="H246" s="2">
+        <v>915951168000</v>
+      </c>
+    </row>
+    <row r="247" spans="3:8">
       <c r="C247" s="2">
         <v>242</v>
       </c>
@@ -5956,8 +6680,11 @@
         <f t="shared" si="16"/>
         <v>2680000</v>
       </c>
-    </row>
-    <row r="248" spans="3:7">
+      <c r="H247" s="2">
+        <v>935425056000</v>
+      </c>
+    </row>
+    <row r="248" spans="3:8">
       <c r="C248" s="2">
         <v>243</v>
       </c>
@@ -5976,8 +6703,11 @@
         <f t="shared" si="16"/>
         <v>2720000</v>
       </c>
-    </row>
-    <row r="249" spans="3:7">
+      <c r="H248" s="2">
+        <v>955065984000</v>
+      </c>
+    </row>
+    <row r="249" spans="3:8">
       <c r="C249" s="2">
         <v>244</v>
       </c>
@@ -5996,8 +6726,11 @@
         <f t="shared" si="16"/>
         <v>2760000</v>
       </c>
-    </row>
-    <row r="250" spans="3:7">
+      <c r="H249" s="2">
+        <v>974873952000</v>
+      </c>
+    </row>
+    <row r="250" spans="3:8">
       <c r="C250" s="2">
         <v>245</v>
       </c>
@@ -6016,8 +6749,11 @@
         <f t="shared" si="16"/>
         <v>2800000</v>
       </c>
-    </row>
-    <row r="251" spans="3:7">
+      <c r="H250" s="2">
+        <v>994848960000</v>
+      </c>
+    </row>
+    <row r="251" spans="3:8">
       <c r="C251" s="2">
         <v>246</v>
       </c>
@@ -6036,8 +6772,11 @@
         <f t="shared" si="16"/>
         <v>2840000</v>
       </c>
-    </row>
-    <row r="252" spans="3:7">
+      <c r="H251" s="2">
+        <v>1014991008000</v>
+      </c>
+    </row>
+    <row r="252" spans="3:8">
       <c r="C252" s="2">
         <v>247</v>
       </c>
@@ -6056,8 +6795,11 @@
         <f t="shared" si="16"/>
         <v>2880000</v>
       </c>
-    </row>
-    <row r="253" spans="3:7">
+      <c r="H252" s="2">
+        <v>1035300096000</v>
+      </c>
+    </row>
+    <row r="253" spans="3:8">
       <c r="C253" s="2">
         <v>248</v>
       </c>
@@ -6076,8 +6818,11 @@
         <f t="shared" si="16"/>
         <v>2920000</v>
       </c>
-    </row>
-    <row r="254" spans="3:7">
+      <c r="H253" s="2">
+        <v>1055776224000</v>
+      </c>
+    </row>
+    <row r="254" spans="3:8">
       <c r="C254" s="2">
         <v>249</v>
       </c>
@@ -6096,8 +6841,11 @@
         <f t="shared" si="16"/>
         <v>2960000</v>
       </c>
-    </row>
-    <row r="255" spans="3:7">
+      <c r="H254" s="2">
+        <v>1076419392000</v>
+      </c>
+    </row>
+    <row r="255" spans="3:8">
       <c r="C255" s="5">
         <v>250</v>
       </c>
@@ -6116,8 +6864,11 @@
         <f t="shared" si="16"/>
         <v>3000000</v>
       </c>
-    </row>
-    <row r="256" spans="3:7">
+      <c r="H255" s="2">
+        <v>1097229600000</v>
+      </c>
+    </row>
+    <row r="256" spans="3:8">
       <c r="C256" s="2">
         <v>251</v>
       </c>
@@ -6136,8 +6887,11 @@
         <f t="shared" si="16"/>
         <v>3060000</v>
       </c>
-    </row>
-    <row r="257" spans="3:7">
+      <c r="H256" s="2">
+        <v>1125783792000</v>
+      </c>
+    </row>
+    <row r="257" spans="3:8">
       <c r="C257" s="2">
         <v>252</v>
       </c>
@@ -6156,8 +6910,11 @@
         <f t="shared" si="16"/>
         <v>3120000</v>
       </c>
-    </row>
-    <row r="258" spans="3:7">
+      <c r="H257" s="2">
+        <v>1154597184000</v>
+      </c>
+    </row>
+    <row r="258" spans="3:8">
       <c r="C258" s="2">
         <v>253</v>
       </c>
@@ -6176,8 +6933,11 @@
         <f t="shared" si="16"/>
         <v>3180000</v>
       </c>
-    </row>
-    <row r="259" spans="3:7">
+      <c r="H258" s="2">
+        <v>1183669776000</v>
+      </c>
+    </row>
+    <row r="259" spans="3:8">
       <c r="C259" s="2">
         <v>254</v>
       </c>
@@ -6196,8 +6956,11 @@
         <f t="shared" si="16"/>
         <v>3240000</v>
       </c>
-    </row>
-    <row r="260" spans="3:7">
+      <c r="H259" s="2">
+        <v>1213001568000</v>
+      </c>
+    </row>
+    <row r="260" spans="3:8">
       <c r="C260" s="2">
         <v>255</v>
       </c>
@@ -6216,8 +6979,11 @@
         <f t="shared" si="16"/>
         <v>3300000</v>
       </c>
-    </row>
-    <row r="261" spans="3:7">
+      <c r="H260" s="2">
+        <v>1242592560000</v>
+      </c>
+    </row>
+    <row r="261" spans="3:8">
       <c r="C261" s="2">
         <v>256</v>
       </c>
@@ -6236,8 +7002,11 @@
         <f t="shared" si="16"/>
         <v>3360000</v>
       </c>
-    </row>
-    <row r="262" spans="3:7">
+      <c r="H261" s="2">
+        <v>1272442752000</v>
+      </c>
+    </row>
+    <row r="262" spans="3:8">
       <c r="C262" s="2">
         <v>257</v>
       </c>
@@ -6256,8 +7025,11 @@
         <f t="shared" ref="G262:G325" si="20">E262*10</f>
         <v>3420000</v>
       </c>
-    </row>
-    <row r="263" spans="3:7">
+      <c r="H262" s="2">
+        <v>1302552144000</v>
+      </c>
+    </row>
+    <row r="263" spans="3:8">
       <c r="C263" s="2">
         <v>258</v>
       </c>
@@ -6276,8 +7048,11 @@
         <f t="shared" si="20"/>
         <v>3480000</v>
       </c>
-    </row>
-    <row r="264" spans="3:7">
+      <c r="H263" s="2">
+        <v>1332920736000</v>
+      </c>
+    </row>
+    <row r="264" spans="3:8">
       <c r="C264" s="2">
         <v>259</v>
       </c>
@@ -6296,8 +7071,11 @@
         <f t="shared" si="20"/>
         <v>3540000</v>
       </c>
-    </row>
-    <row r="265" spans="3:7">
+      <c r="H264" s="2">
+        <v>1363548528000</v>
+      </c>
+    </row>
+    <row r="265" spans="3:8">
       <c r="C265" s="2">
         <v>260</v>
       </c>
@@ -6316,8 +7094,11 @@
         <f t="shared" si="20"/>
         <v>3600000</v>
       </c>
-    </row>
-    <row r="266" spans="3:7">
+      <c r="H265" s="2">
+        <v>1394435520000</v>
+      </c>
+    </row>
+    <row r="266" spans="3:8">
       <c r="C266" s="2">
         <v>261</v>
       </c>
@@ -6336,8 +7117,11 @@
         <f t="shared" si="20"/>
         <v>3660000</v>
       </c>
-    </row>
-    <row r="267" spans="3:7">
+      <c r="H266" s="2">
+        <v>1425581712000</v>
+      </c>
+    </row>
+    <row r="267" spans="3:8">
       <c r="C267" s="2">
         <v>262</v>
       </c>
@@ -6356,8 +7140,11 @@
         <f t="shared" si="20"/>
         <v>3720000</v>
       </c>
-    </row>
-    <row r="268" spans="3:7">
+      <c r="H267" s="2">
+        <v>1456987104000</v>
+      </c>
+    </row>
+    <row r="268" spans="3:8">
       <c r="C268" s="2">
         <v>263</v>
       </c>
@@ -6376,8 +7163,11 @@
         <f t="shared" si="20"/>
         <v>3780000</v>
       </c>
-    </row>
-    <row r="269" spans="3:7">
+      <c r="H268" s="2">
+        <v>1488651696000</v>
+      </c>
+    </row>
+    <row r="269" spans="3:8">
       <c r="C269" s="2">
         <v>264</v>
       </c>
@@ -6396,8 +7186,11 @@
         <f t="shared" si="20"/>
         <v>3840000</v>
       </c>
-    </row>
-    <row r="270" spans="3:7">
+      <c r="H269" s="2">
+        <v>1520575488000</v>
+      </c>
+    </row>
+    <row r="270" spans="3:8">
       <c r="C270" s="2">
         <v>265</v>
       </c>
@@ -6416,8 +7209,11 @@
         <f t="shared" si="20"/>
         <v>3900000</v>
       </c>
-    </row>
-    <row r="271" spans="3:7">
+      <c r="H270" s="2">
+        <v>1552758480000</v>
+      </c>
+    </row>
+    <row r="271" spans="3:8">
       <c r="C271" s="2">
         <v>266</v>
       </c>
@@ -6436,8 +7232,11 @@
         <f t="shared" si="20"/>
         <v>3960000</v>
       </c>
-    </row>
-    <row r="272" spans="3:7">
+      <c r="H271" s="2">
+        <v>1585200672000</v>
+      </c>
+    </row>
+    <row r="272" spans="3:8">
       <c r="C272" s="2">
         <v>267</v>
       </c>
@@ -6456,8 +7255,11 @@
         <f t="shared" si="20"/>
         <v>4020000</v>
       </c>
-    </row>
-    <row r="273" spans="3:7">
+      <c r="H272" s="2">
+        <v>1617902064000</v>
+      </c>
+    </row>
+    <row r="273" spans="3:8">
       <c r="C273" s="2">
         <v>268</v>
       </c>
@@ -6476,8 +7278,11 @@
         <f t="shared" si="20"/>
         <v>4080000</v>
       </c>
-    </row>
-    <row r="274" spans="3:7">
+      <c r="H273" s="2">
+        <v>1650862656000</v>
+      </c>
+    </row>
+    <row r="274" spans="3:8">
       <c r="C274" s="2">
         <v>269</v>
       </c>
@@ -6496,8 +7301,11 @@
         <f t="shared" si="20"/>
         <v>4140000</v>
       </c>
-    </row>
-    <row r="275" spans="3:7">
+      <c r="H274" s="2">
+        <v>1684082448000</v>
+      </c>
+    </row>
+    <row r="275" spans="3:8">
       <c r="C275" s="2">
         <v>270</v>
       </c>
@@ -6516,8 +7324,11 @@
         <f t="shared" si="20"/>
         <v>4200000</v>
       </c>
-    </row>
-    <row r="276" spans="3:7">
+      <c r="H275" s="2">
+        <v>1717561440000</v>
+      </c>
+    </row>
+    <row r="276" spans="3:8">
       <c r="C276" s="2">
         <v>271</v>
       </c>
@@ -6536,8 +7347,11 @@
         <f t="shared" si="20"/>
         <v>4260000</v>
       </c>
-    </row>
-    <row r="277" spans="3:7">
+      <c r="H276" s="2">
+        <v>1751606352000</v>
+      </c>
+    </row>
+    <row r="277" spans="3:8">
       <c r="C277" s="2">
         <v>272</v>
       </c>
@@ -6556,8 +7370,11 @@
         <f t="shared" si="20"/>
         <v>4320000</v>
       </c>
-    </row>
-    <row r="278" spans="3:7">
+      <c r="H277" s="2">
+        <v>1785919104000</v>
+      </c>
+    </row>
+    <row r="278" spans="3:8">
       <c r="C278" s="2">
         <v>273</v>
       </c>
@@ -6576,8 +7393,11 @@
         <f t="shared" si="20"/>
         <v>4380000</v>
       </c>
-    </row>
-    <row r="279" spans="3:7">
+      <c r="H278" s="2">
+        <v>1820499696000</v>
+      </c>
+    </row>
+    <row r="279" spans="3:8">
       <c r="C279" s="2">
         <v>274</v>
       </c>
@@ -6596,8 +7416,11 @@
         <f t="shared" si="20"/>
         <v>4440000</v>
       </c>
-    </row>
-    <row r="280" spans="3:7">
+      <c r="H279" s="2">
+        <v>1855348128000</v>
+      </c>
+    </row>
+    <row r="280" spans="3:8">
       <c r="C280" s="2">
         <v>275</v>
       </c>
@@ -6616,8 +7439,11 @@
         <f t="shared" si="20"/>
         <v>4500000</v>
       </c>
-    </row>
-    <row r="281" spans="3:7">
+      <c r="H280" s="2">
+        <v>1890464400000</v>
+      </c>
+    </row>
+    <row r="281" spans="3:8">
       <c r="C281" s="2">
         <v>276</v>
       </c>
@@ -6636,8 +7462,11 @@
         <f t="shared" si="20"/>
         <v>4560000</v>
       </c>
-    </row>
-    <row r="282" spans="3:7">
+      <c r="H281" s="2">
+        <v>1925848512000</v>
+      </c>
+    </row>
+    <row r="282" spans="3:8">
       <c r="C282" s="2">
         <v>277</v>
       </c>
@@ -6656,8 +7485,11 @@
         <f t="shared" si="20"/>
         <v>4620000</v>
       </c>
-    </row>
-    <row r="283" spans="3:7">
+      <c r="H282" s="2">
+        <v>1961500464000</v>
+      </c>
+    </row>
+    <row r="283" spans="3:8">
       <c r="C283" s="2">
         <v>278</v>
       </c>
@@ -6676,8 +7508,11 @@
         <f t="shared" si="20"/>
         <v>4680000</v>
       </c>
-    </row>
-    <row r="284" spans="3:7">
+      <c r="H283" s="2">
+        <v>1997420256000</v>
+      </c>
+    </row>
+    <row r="284" spans="3:8">
       <c r="C284" s="2">
         <v>279</v>
       </c>
@@ -6696,8 +7531,11 @@
         <f t="shared" si="20"/>
         <v>4740000</v>
       </c>
-    </row>
-    <row r="285" spans="3:7">
+      <c r="H284" s="2">
+        <v>2033607888000</v>
+      </c>
+    </row>
+    <row r="285" spans="3:8">
       <c r="C285" s="2">
         <v>280</v>
       </c>
@@ -6716,8 +7554,11 @@
         <f t="shared" si="20"/>
         <v>4800000</v>
       </c>
-    </row>
-    <row r="286" spans="3:7">
+      <c r="H285" s="2">
+        <v>2070063360000</v>
+      </c>
+    </row>
+    <row r="286" spans="3:8">
       <c r="C286" s="2">
         <v>281</v>
       </c>
@@ -6736,8 +7577,11 @@
         <f t="shared" si="20"/>
         <v>4860000</v>
       </c>
-    </row>
-    <row r="287" spans="3:7">
+      <c r="H286" s="2">
+        <v>2106786672000</v>
+      </c>
+    </row>
+    <row r="287" spans="3:8">
       <c r="C287" s="2">
         <v>282</v>
       </c>
@@ -6756,8 +7600,11 @@
         <f t="shared" si="20"/>
         <v>4920000</v>
       </c>
-    </row>
-    <row r="288" spans="3:7">
+      <c r="H287" s="2">
+        <v>2143777824000</v>
+      </c>
+    </row>
+    <row r="288" spans="3:8">
       <c r="C288" s="2">
         <v>283</v>
       </c>
@@ -6776,8 +7623,11 @@
         <f t="shared" si="20"/>
         <v>4980000</v>
       </c>
-    </row>
-    <row r="289" spans="3:7">
+      <c r="H288" s="2">
+        <v>2181036816000</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8">
       <c r="C289" s="2">
         <v>284</v>
       </c>
@@ -6796,8 +7646,11 @@
         <f t="shared" si="20"/>
         <v>5040000</v>
       </c>
-    </row>
-    <row r="290" spans="3:7">
+      <c r="H289" s="2">
+        <v>2218563648000</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8">
       <c r="C290" s="2">
         <v>285</v>
       </c>
@@ -6816,8 +7669,11 @@
         <f t="shared" si="20"/>
         <v>5100000</v>
       </c>
-    </row>
-    <row r="291" spans="3:7">
+      <c r="H290" s="2">
+        <v>2256358320000</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8">
       <c r="C291" s="2">
         <v>286</v>
       </c>
@@ -6836,8 +7692,11 @@
         <f t="shared" si="20"/>
         <v>5160000</v>
       </c>
-    </row>
-    <row r="292" spans="3:7">
+      <c r="H291" s="2">
+        <v>2294420832000</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8">
       <c r="C292" s="2">
         <v>287</v>
       </c>
@@ -6856,8 +7715,11 @@
         <f t="shared" si="20"/>
         <v>5220000</v>
       </c>
-    </row>
-    <row r="293" spans="3:7">
+      <c r="H292" s="2">
+        <v>2332751184000</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8">
       <c r="C293" s="2">
         <v>288</v>
       </c>
@@ -6876,8 +7738,11 @@
         <f t="shared" si="20"/>
         <v>5280000</v>
       </c>
-    </row>
-    <row r="294" spans="3:7">
+      <c r="H293" s="2">
+        <v>2371349376000</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8">
       <c r="C294" s="2">
         <v>289</v>
       </c>
@@ -6896,8 +7761,11 @@
         <f t="shared" si="20"/>
         <v>5340000</v>
       </c>
-    </row>
-    <row r="295" spans="3:7">
+      <c r="H294" s="2">
+        <v>2410215408000</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8">
       <c r="C295" s="2">
         <v>290</v>
       </c>
@@ -6916,8 +7784,11 @@
         <f t="shared" si="20"/>
         <v>5400000</v>
       </c>
-    </row>
-    <row r="296" spans="3:7">
+      <c r="H295" s="2">
+        <v>2449349280000</v>
+      </c>
+    </row>
+    <row r="296" spans="3:8">
       <c r="C296" s="2">
         <v>291</v>
       </c>
@@ -6936,8 +7807,11 @@
         <f t="shared" si="20"/>
         <v>5460000</v>
       </c>
-    </row>
-    <row r="297" spans="3:7">
+      <c r="H296" s="2">
+        <v>2489144112000</v>
+      </c>
+    </row>
+    <row r="297" spans="3:8">
       <c r="C297" s="2">
         <v>292</v>
       </c>
@@ -6956,8 +7830,11 @@
         <f t="shared" si="20"/>
         <v>5520000</v>
       </c>
-    </row>
-    <row r="298" spans="3:7">
+      <c r="H297" s="2">
+        <v>2529215424000</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8">
       <c r="C298" s="2">
         <v>293</v>
       </c>
@@ -6976,8 +7853,11 @@
         <f t="shared" si="20"/>
         <v>5580000</v>
       </c>
-    </row>
-    <row r="299" spans="3:7">
+      <c r="H298" s="2">
+        <v>2569563216000</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8">
       <c r="C299" s="2">
         <v>294</v>
       </c>
@@ -6996,8 +7876,11 @@
         <f t="shared" si="20"/>
         <v>5640000</v>
       </c>
-    </row>
-    <row r="300" spans="3:7">
+      <c r="H299" s="2">
+        <v>2610187488000</v>
+      </c>
+    </row>
+    <row r="300" spans="3:8">
       <c r="C300" s="2">
         <v>295</v>
       </c>
@@ -7016,8 +7899,11 @@
         <f t="shared" si="20"/>
         <v>5700000</v>
       </c>
-    </row>
-    <row r="301" spans="3:7">
+      <c r="H300" s="2">
+        <v>2651088240000</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8">
       <c r="C301" s="2">
         <v>296</v>
       </c>
@@ -7036,8 +7922,11 @@
         <f t="shared" si="20"/>
         <v>5760000</v>
       </c>
-    </row>
-    <row r="302" spans="3:7">
+      <c r="H301" s="2">
+        <v>2692265472000</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8">
       <c r="C302" s="2">
         <v>297</v>
       </c>
@@ -7056,8 +7945,11 @@
         <f t="shared" si="20"/>
         <v>5820000</v>
       </c>
-    </row>
-    <row r="303" spans="3:7">
+      <c r="H302" s="2">
+        <v>2733719184000</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8">
       <c r="C303" s="2">
         <v>298</v>
       </c>
@@ -7076,8 +7968,11 @@
         <f t="shared" si="20"/>
         <v>5880000</v>
       </c>
-    </row>
-    <row r="304" spans="3:7">
+      <c r="H303" s="2">
+        <v>2775449376000</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8">
       <c r="C304" s="2">
         <v>299</v>
       </c>
@@ -7096,8 +7991,11 @@
         <f t="shared" si="20"/>
         <v>5940000</v>
       </c>
-    </row>
-    <row r="305" spans="3:7">
+      <c r="H304" s="2">
+        <v>2817456048000</v>
+      </c>
+    </row>
+    <row r="305" spans="3:8">
       <c r="C305" s="5">
         <v>300</v>
       </c>
@@ -7116,8 +8014,11 @@
         <f t="shared" si="20"/>
         <v>6000000</v>
       </c>
-    </row>
-    <row r="306" spans="3:7">
+      <c r="H305" s="2">
+        <v>2859739200000</v>
+      </c>
+    </row>
+    <row r="306" spans="3:8">
       <c r="C306" s="2">
         <v>301</v>
       </c>
@@ -7136,8 +8037,11 @@
         <f t="shared" si="20"/>
         <v>6080000</v>
       </c>
-    </row>
-    <row r="307" spans="3:7">
+      <c r="H306" s="2">
+        <v>2911877376000</v>
+      </c>
+    </row>
+    <row r="307" spans="3:8">
       <c r="C307" s="2">
         <v>302</v>
       </c>
@@ -7156,8 +8060,11 @@
         <f t="shared" si="20"/>
         <v>6160000</v>
       </c>
-    </row>
-    <row r="308" spans="3:7">
+      <c r="H307" s="2">
+        <v>2964384192000</v>
+      </c>
+    </row>
+    <row r="308" spans="3:8">
       <c r="C308" s="2">
         <v>303</v>
       </c>
@@ -7176,8 +8083,11 @@
         <f t="shared" si="20"/>
         <v>6240000</v>
       </c>
-    </row>
-    <row r="309" spans="3:7">
+      <c r="H308" s="2">
+        <v>3017259648000</v>
+      </c>
+    </row>
+    <row r="309" spans="3:8">
       <c r="C309" s="2">
         <v>304</v>
       </c>
@@ -7196,8 +8106,11 @@
         <f t="shared" si="20"/>
         <v>6320000</v>
       </c>
-    </row>
-    <row r="310" spans="3:7">
+      <c r="H309" s="2">
+        <v>3070503744000</v>
+      </c>
+    </row>
+    <row r="310" spans="3:8">
       <c r="C310" s="2">
         <v>305</v>
       </c>
@@ -7216,8 +8129,11 @@
         <f t="shared" si="20"/>
         <v>6400000</v>
       </c>
-    </row>
-    <row r="311" spans="3:7">
+      <c r="H310" s="2">
+        <v>3124116480000</v>
+      </c>
+    </row>
+    <row r="311" spans="3:8">
       <c r="C311" s="2">
         <v>306</v>
       </c>
@@ -7236,8 +8152,11 @@
         <f t="shared" si="20"/>
         <v>6480000</v>
       </c>
-    </row>
-    <row r="312" spans="3:7">
+      <c r="H311" s="2">
+        <v>3178097856000</v>
+      </c>
+    </row>
+    <row r="312" spans="3:8">
       <c r="C312" s="2">
         <v>307</v>
       </c>
@@ -7256,8 +8175,11 @@
         <f t="shared" si="20"/>
         <v>6560000</v>
       </c>
-    </row>
-    <row r="313" spans="3:7">
+      <c r="H312" s="2">
+        <v>3232447872000</v>
+      </c>
+    </row>
+    <row r="313" spans="3:8">
       <c r="C313" s="2">
         <v>308</v>
       </c>
@@ -7276,8 +8198,11 @@
         <f t="shared" si="20"/>
         <v>6640000</v>
       </c>
-    </row>
-    <row r="314" spans="3:7">
+      <c r="H313" s="2">
+        <v>3287166528000</v>
+      </c>
+    </row>
+    <row r="314" spans="3:8">
       <c r="C314" s="2">
         <v>309</v>
       </c>
@@ -7296,8 +8221,11 @@
         <f t="shared" si="20"/>
         <v>6720000</v>
       </c>
-    </row>
-    <row r="315" spans="3:7">
+      <c r="H314" s="2">
+        <v>3342253824000</v>
+      </c>
+    </row>
+    <row r="315" spans="3:8">
       <c r="C315" s="2">
         <v>310</v>
       </c>
@@ -7316,8 +8244,11 @@
         <f t="shared" si="20"/>
         <v>6800000</v>
       </c>
-    </row>
-    <row r="316" spans="3:7">
+      <c r="H315" s="2">
+        <v>3397709760000</v>
+      </c>
+    </row>
+    <row r="316" spans="3:8">
       <c r="C316" s="2">
         <v>311</v>
       </c>
@@ -7336,8 +8267,11 @@
         <f t="shared" si="20"/>
         <v>6880000</v>
       </c>
-    </row>
-    <row r="317" spans="3:7">
+      <c r="H316" s="2">
+        <v>3454029696000</v>
+      </c>
+    </row>
+    <row r="317" spans="3:8">
       <c r="C317" s="2">
         <v>312</v>
       </c>
@@ -7356,8 +8290,11 @@
         <f t="shared" si="20"/>
         <v>6960000</v>
       </c>
-    </row>
-    <row r="318" spans="3:7">
+      <c r="H317" s="2">
+        <v>3510729792000</v>
+      </c>
+    </row>
+    <row r="318" spans="3:8">
       <c r="C318" s="2">
         <v>313</v>
       </c>
@@ -7376,8 +8313,11 @@
         <f t="shared" si="20"/>
         <v>7040000</v>
       </c>
-    </row>
-    <row r="319" spans="3:7">
+      <c r="H318" s="2">
+        <v>3567810048000</v>
+      </c>
+    </row>
+    <row r="319" spans="3:8">
       <c r="C319" s="2">
         <v>314</v>
       </c>
@@ -7396,8 +8336,11 @@
         <f t="shared" si="20"/>
         <v>7120000</v>
       </c>
-    </row>
-    <row r="320" spans="3:7">
+      <c r="H319" s="2">
+        <v>3625270464000</v>
+      </c>
+    </row>
+    <row r="320" spans="3:8">
       <c r="C320" s="2">
         <v>315</v>
       </c>
@@ -7416,8 +8359,11 @@
         <f t="shared" si="20"/>
         <v>7200000</v>
       </c>
-    </row>
-    <row r="321" spans="3:7">
+      <c r="H320" s="2">
+        <v>3683111040000</v>
+      </c>
+    </row>
+    <row r="321" spans="3:8">
       <c r="C321" s="2">
         <v>316</v>
       </c>
@@ -7436,8 +8382,11 @@
         <f t="shared" si="20"/>
         <v>7280000</v>
       </c>
-    </row>
-    <row r="322" spans="3:7">
+      <c r="H321" s="2">
+        <v>3741331776000</v>
+      </c>
+    </row>
+    <row r="322" spans="3:8">
       <c r="C322" s="2">
         <v>317</v>
       </c>
@@ -7456,8 +8405,11 @@
         <f t="shared" si="20"/>
         <v>7360000</v>
       </c>
-    </row>
-    <row r="323" spans="3:7">
+      <c r="H322" s="2">
+        <v>3799932672000</v>
+      </c>
+    </row>
+    <row r="323" spans="3:8">
       <c r="C323" s="2">
         <v>318</v>
       </c>
@@ -7476,8 +8428,11 @@
         <f t="shared" si="20"/>
         <v>7440000</v>
       </c>
-    </row>
-    <row r="324" spans="3:7">
+      <c r="H323" s="2">
+        <v>3858913728000</v>
+      </c>
+    </row>
+    <row r="324" spans="3:8">
       <c r="C324" s="2">
         <v>319</v>
       </c>
@@ -7496,8 +8451,11 @@
         <f t="shared" si="20"/>
         <v>7520000</v>
       </c>
-    </row>
-    <row r="325" spans="3:7">
+      <c r="H324" s="2">
+        <v>3918274944000</v>
+      </c>
+    </row>
+    <row r="325" spans="3:8">
       <c r="C325" s="2">
         <v>320</v>
       </c>
@@ -7516,8 +8474,11 @@
         <f t="shared" si="20"/>
         <v>7600000</v>
       </c>
-    </row>
-    <row r="326" spans="3:7">
+      <c r="H325" s="2">
+        <v>3978016320000</v>
+      </c>
+    </row>
+    <row r="326" spans="3:8">
       <c r="C326" s="2">
         <v>321</v>
       </c>
@@ -7536,8 +8497,11 @@
         <f t="shared" ref="G326:G355" si="23">E326*10</f>
         <v>7680000</v>
       </c>
-    </row>
-    <row r="327" spans="3:7">
+      <c r="H326" s="2">
+        <v>4038137856000</v>
+      </c>
+    </row>
+    <row r="327" spans="3:8">
       <c r="C327" s="2">
         <v>322</v>
       </c>
@@ -7556,8 +8520,11 @@
         <f t="shared" si="23"/>
         <v>7760000</v>
       </c>
-    </row>
-    <row r="328" spans="3:7">
+      <c r="H327" s="2">
+        <v>4098639552000</v>
+      </c>
+    </row>
+    <row r="328" spans="3:8">
       <c r="C328" s="2">
         <v>323</v>
       </c>
@@ -7576,8 +8543,11 @@
         <f t="shared" si="23"/>
         <v>7840000</v>
       </c>
-    </row>
-    <row r="329" spans="3:7">
+      <c r="H328" s="2">
+        <v>4159521408000</v>
+      </c>
+    </row>
+    <row r="329" spans="3:8">
       <c r="C329" s="2">
         <v>324</v>
       </c>
@@ -7596,8 +8566,11 @@
         <f t="shared" si="23"/>
         <v>7920000</v>
       </c>
-    </row>
-    <row r="330" spans="3:7">
+      <c r="H329" s="2">
+        <v>4220783424000</v>
+      </c>
+    </row>
+    <row r="330" spans="3:8">
       <c r="C330" s="2">
         <v>325</v>
       </c>
@@ -7616,8 +8589,11 @@
         <f t="shared" si="23"/>
         <v>8000000</v>
       </c>
-    </row>
-    <row r="331" spans="3:7">
+      <c r="H330" s="2">
+        <v>4282425600000</v>
+      </c>
+    </row>
+    <row r="331" spans="3:8">
       <c r="C331" s="2">
         <v>326</v>
       </c>
@@ -7636,8 +8612,11 @@
         <f t="shared" si="23"/>
         <v>8080000</v>
       </c>
-    </row>
-    <row r="332" spans="3:7">
+      <c r="H331" s="2">
+        <v>4344447936000</v>
+      </c>
+    </row>
+    <row r="332" spans="3:8">
       <c r="C332" s="2">
         <v>327</v>
       </c>
@@ -7656,8 +8635,11 @@
         <f t="shared" si="23"/>
         <v>8160000</v>
       </c>
-    </row>
-    <row r="333" spans="3:7">
+      <c r="H332" s="2">
+        <v>4406850432000</v>
+      </c>
+    </row>
+    <row r="333" spans="3:8">
       <c r="C333" s="2">
         <v>328</v>
       </c>
@@ -7676,8 +8658,11 @@
         <f t="shared" si="23"/>
         <v>8240000</v>
       </c>
-    </row>
-    <row r="334" spans="3:7">
+      <c r="H333" s="2">
+        <v>4469633088000</v>
+      </c>
+    </row>
+    <row r="334" spans="3:8">
       <c r="C334" s="2">
         <v>329</v>
       </c>
@@ -7696,8 +8681,11 @@
         <f t="shared" si="23"/>
         <v>8320000</v>
       </c>
-    </row>
-    <row r="335" spans="3:7">
+      <c r="H334" s="2">
+        <v>4532795904000</v>
+      </c>
+    </row>
+    <row r="335" spans="3:8">
       <c r="C335" s="2">
         <v>330</v>
       </c>
@@ -7716,8 +8704,11 @@
         <f t="shared" si="23"/>
         <v>8400000</v>
       </c>
-    </row>
-    <row r="336" spans="3:7">
+      <c r="H335" s="2">
+        <v>4596338880000</v>
+      </c>
+    </row>
+    <row r="336" spans="3:8">
       <c r="C336" s="2">
         <v>331</v>
       </c>
@@ -7736,8 +8727,11 @@
         <f t="shared" si="23"/>
         <v>8480000</v>
       </c>
-    </row>
-    <row r="337" spans="3:7">
+      <c r="H336" s="2">
+        <v>4660872576000</v>
+      </c>
+    </row>
+    <row r="337" spans="3:8">
       <c r="C337" s="2">
         <v>332</v>
       </c>
@@ -7756,8 +8750,11 @@
         <f t="shared" si="23"/>
         <v>8560000</v>
       </c>
-    </row>
-    <row r="338" spans="3:7">
+      <c r="H337" s="2">
+        <v>4725797952000</v>
+      </c>
+    </row>
+    <row r="338" spans="3:8">
       <c r="C338" s="2">
         <v>333</v>
       </c>
@@ -7776,8 +8773,11 @@
         <f t="shared" si="23"/>
         <v>8640000</v>
       </c>
-    </row>
-    <row r="339" spans="3:7">
+      <c r="H338" s="2">
+        <v>4791115008000</v>
+      </c>
+    </row>
+    <row r="339" spans="3:8">
       <c r="C339" s="2">
         <v>334</v>
       </c>
@@ -7796,8 +8796,11 @@
         <f t="shared" si="23"/>
         <v>8720000</v>
       </c>
-    </row>
-    <row r="340" spans="3:7">
+      <c r="H339" s="2">
+        <v>4856823744000</v>
+      </c>
+    </row>
+    <row r="340" spans="3:8">
       <c r="C340" s="2">
         <v>335</v>
       </c>
@@ -7816,8 +8819,11 @@
         <f t="shared" si="23"/>
         <v>8800000</v>
       </c>
-    </row>
-    <row r="341" spans="3:7">
+      <c r="H340" s="2">
+        <v>4922924160000</v>
+      </c>
+    </row>
+    <row r="341" spans="3:8">
       <c r="C341" s="2">
         <v>336</v>
       </c>
@@ -7836,8 +8842,11 @@
         <f t="shared" si="23"/>
         <v>8880000</v>
       </c>
-    </row>
-    <row r="342" spans="3:7">
+      <c r="H341" s="2">
+        <v>4989416256000</v>
+      </c>
+    </row>
+    <row r="342" spans="3:8">
       <c r="C342" s="2">
         <v>337</v>
       </c>
@@ -7856,8 +8865,11 @@
         <f t="shared" si="23"/>
         <v>8960000</v>
       </c>
-    </row>
-    <row r="343" spans="3:7">
+      <c r="H342" s="2">
+        <v>5056300032000</v>
+      </c>
+    </row>
+    <row r="343" spans="3:8">
       <c r="C343" s="2">
         <v>338</v>
       </c>
@@ -7876,8 +8888,11 @@
         <f t="shared" si="23"/>
         <v>9040000</v>
       </c>
-    </row>
-    <row r="344" spans="3:7">
+      <c r="H343" s="2">
+        <v>5123575488000</v>
+      </c>
+    </row>
+    <row r="344" spans="3:8">
       <c r="C344" s="2">
         <v>339</v>
       </c>
@@ -7896,8 +8911,11 @@
         <f t="shared" si="23"/>
         <v>9120000</v>
       </c>
-    </row>
-    <row r="345" spans="3:7">
+      <c r="H344" s="2">
+        <v>5191242624000</v>
+      </c>
+    </row>
+    <row r="345" spans="3:8">
       <c r="C345" s="2">
         <v>340</v>
       </c>
@@ -7916,8 +8934,11 @@
         <f t="shared" si="23"/>
         <v>9200000</v>
       </c>
-    </row>
-    <row r="346" spans="3:7">
+      <c r="H345" s="2">
+        <v>5259301440000</v>
+      </c>
+    </row>
+    <row r="346" spans="3:8">
       <c r="C346" s="2">
         <v>341</v>
       </c>
@@ -7936,8 +8957,11 @@
         <f t="shared" si="23"/>
         <v>9280000</v>
       </c>
-    </row>
-    <row r="347" spans="3:7">
+      <c r="H346" s="2">
+        <v>5327751936000</v>
+      </c>
+    </row>
+    <row r="347" spans="3:8">
       <c r="C347" s="2">
         <v>342</v>
       </c>
@@ -7956,8 +8980,11 @@
         <f t="shared" si="23"/>
         <v>9360000</v>
       </c>
-    </row>
-    <row r="348" spans="3:7">
+      <c r="H347" s="2">
+        <v>5396594112000</v>
+      </c>
+    </row>
+    <row r="348" spans="3:8">
       <c r="C348" s="2">
         <v>343</v>
       </c>
@@ -7976,8 +9003,11 @@
         <f t="shared" si="23"/>
         <v>9440000</v>
       </c>
-    </row>
-    <row r="349" spans="3:7">
+      <c r="H348" s="2">
+        <v>5465827968000</v>
+      </c>
+    </row>
+    <row r="349" spans="3:8">
       <c r="C349" s="2">
         <v>344</v>
       </c>
@@ -7996,8 +9026,11 @@
         <f t="shared" si="23"/>
         <v>9520000</v>
       </c>
-    </row>
-    <row r="350" spans="3:7">
+      <c r="H349" s="2">
+        <v>5535453504000</v>
+      </c>
+    </row>
+    <row r="350" spans="3:8">
       <c r="C350" s="2">
         <v>345</v>
       </c>
@@ -8016,8 +9049,11 @@
         <f t="shared" si="23"/>
         <v>9600000</v>
       </c>
-    </row>
-    <row r="351" spans="3:7">
+      <c r="H350" s="2">
+        <v>5605470720000</v>
+      </c>
+    </row>
+    <row r="351" spans="3:8">
       <c r="C351" s="2">
         <v>346</v>
       </c>
@@ -8036,8 +9072,11 @@
         <f t="shared" si="23"/>
         <v>9680000</v>
       </c>
-    </row>
-    <row r="352" spans="3:7">
+      <c r="H351" s="2">
+        <v>5675879616000</v>
+      </c>
+    </row>
+    <row r="352" spans="3:8">
       <c r="C352" s="2">
         <v>347</v>
       </c>
@@ -8056,8 +9095,11 @@
         <f t="shared" si="23"/>
         <v>9760000</v>
       </c>
-    </row>
-    <row r="353" spans="3:7">
+      <c r="H352" s="2">
+        <v>5746680192000</v>
+      </c>
+    </row>
+    <row r="353" spans="3:8">
       <c r="C353" s="2">
         <v>348</v>
       </c>
@@ -8076,8 +9118,11 @@
         <f t="shared" si="23"/>
         <v>9840000</v>
       </c>
-    </row>
-    <row r="354" spans="3:7">
+      <c r="H353" s="2">
+        <v>5817872448000</v>
+      </c>
+    </row>
+    <row r="354" spans="3:8">
       <c r="C354" s="2">
         <v>349</v>
       </c>
@@ -8096,8 +9141,11 @@
         <f t="shared" si="23"/>
         <v>9920000</v>
       </c>
-    </row>
-    <row r="355" spans="3:7">
+      <c r="H354" s="2">
+        <v>5889456384000</v>
+      </c>
+    </row>
+    <row r="355" spans="3:8">
       <c r="C355" s="2">
         <v>350</v>
       </c>
@@ -8115,6 +9163,9 @@
       <c r="G355" s="2">
         <f t="shared" si="23"/>
         <v>10000000</v>
+      </c>
+      <c r="H355" s="2">
+        <v>5961432000000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -28,7 +28,7 @@
     <t>Def</t>
   </si>
   <si>
-    <t>Hp</t>
+    <t>HP</t>
   </si>
   <si>
     <t>Exp</t>
@@ -1044,7 +1044,7 @@
   <dimension ref="C3:H355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="C3:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1196,7 +1196,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1">
         <v>50</v>
@@ -1231,7 +1231,7 @@
         <v>101</v>
       </c>
       <c r="I7" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J7" s="1">
         <v>1000</v>
@@ -1266,7 +1266,7 @@
         <v>1001</v>
       </c>
       <c r="I8" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J8" s="1">
         <v>20000</v>
@@ -1301,7 +1301,7 @@
         <v>10001</v>
       </c>
       <c r="I9" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J9" s="1">
         <v>300000</v>
@@ -1336,7 +1336,7 @@
         <v>100001</v>
       </c>
       <c r="I10" s="1">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="J10" s="1">
         <v>4000000</v>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M10"/>
+  <dimension ref="C3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1219,22 +1219,25 @@
         <v>1001</v>
       </c>
       <c r="E7" s="1">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <v>110</v>
+        <f t="shared" ref="F7:F12" si="0">E6+10</f>
+        <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>101</v>
+        <f t="shared" ref="H7:H12" si="1">E6*0.2+1</f>
+        <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <v>1000</v>
+        <f t="shared" ref="J7:J12" si="2">E6*10+50</f>
+        <v>10050</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -1251,31 +1254,35 @@
         <v>3</v>
       </c>
       <c r="D8" s="1">
-        <v>2001</v>
+        <v>3001</v>
       </c>
       <c r="E8" s="1">
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F8" s="1">
-        <v>1010</v>
+        <f t="shared" si="0"/>
+        <v>3010</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
       </c>
       <c r="H8" s="1">
-        <v>1001</v>
+        <f t="shared" si="1"/>
+        <v>601</v>
       </c>
       <c r="I8" s="1">
         <v>0.2</v>
       </c>
       <c r="J8" s="1">
-        <v>20000</v>
+        <f t="shared" si="2"/>
+        <v>30050</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <v>30100</v>
+        <f t="shared" ref="L8:L12" si="3">(E7-E6)*M7+L7</f>
+        <v>50100</v>
       </c>
       <c r="M8" s="1">
         <v>30</v>
@@ -1286,31 +1293,35 @@
         <v>4</v>
       </c>
       <c r="D9" s="1">
-        <v>3001</v>
+        <v>6001</v>
       </c>
       <c r="E9" s="1">
-        <v>3998</v>
+        <v>10000</v>
       </c>
       <c r="F9" s="1">
-        <v>10010</v>
+        <f t="shared" si="0"/>
+        <v>6010</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
       </c>
       <c r="H9" s="1">
-        <v>10001</v>
+        <f t="shared" si="1"/>
+        <v>1201</v>
       </c>
       <c r="I9" s="1">
         <v>0.2</v>
       </c>
       <c r="J9" s="1">
-        <v>300000</v>
+        <f t="shared" si="2"/>
+        <v>60050</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
       </c>
       <c r="L9" s="1">
-        <v>60100</v>
+        <f t="shared" si="3"/>
+        <v>140100</v>
       </c>
       <c r="M9" s="1">
         <v>40</v>
@@ -1321,33 +1332,114 @@
         <v>5</v>
       </c>
       <c r="D10" s="1">
-        <v>3099</v>
+        <v>10001</v>
       </c>
       <c r="E10" s="1">
-        <v>1000000</v>
+        <v>20000</v>
       </c>
       <c r="F10" s="1">
-        <v>100010</v>
+        <f t="shared" si="0"/>
+        <v>10010</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
       </c>
       <c r="H10" s="1">
-        <v>100001</v>
+        <f t="shared" si="1"/>
+        <v>2001</v>
       </c>
       <c r="I10" s="1">
         <v>0.2</v>
       </c>
       <c r="J10" s="1">
-        <v>4000000</v>
+        <f t="shared" si="2"/>
+        <v>100050</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
       </c>
       <c r="L10" s="1">
-        <v>100000</v>
+        <f t="shared" si="3"/>
+        <v>300100</v>
       </c>
       <c r="M10" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>20001</v>
+      </c>
+      <c r="E11" s="1">
+        <v>23330</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>20010</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>4001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>200050</v>
+      </c>
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>800100</v>
+      </c>
+      <c r="M11" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13">
+      <c r="C12" s="1">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1">
+        <v>23331</v>
+      </c>
+      <c r="E12" s="1">
+        <v>21000</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>23340</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>4667</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>233350</v>
+      </c>
+      <c r="K12" s="1">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="M12" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="C3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1413,7 +1413,7 @@
         <v>23331</v>
       </c>
       <c r="E12" s="1">
-        <v>21000</v>
+        <v>9999999</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1050,7 +1050,7 @@
   <dimension ref="C3:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1413,7 +1413,7 @@
         <v>23331</v>
       </c>
       <c r="E12" s="1">
-        <v>9999999</v>
+        <v>500000</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="0"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M12"/>
+  <dimension ref="C3:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,21 +1222,21 @@
         <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F12" si="0">E6+10</f>
+        <f t="shared" ref="F7:F13" si="0">E6+10</f>
         <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H12" si="1">E6*0.2+1</f>
+        <f t="shared" ref="H7:H13" si="1">E6*0.2+1</f>
         <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J12" si="2">E6*10+50</f>
+        <f t="shared" ref="J7:J13" si="2">E6*10+50</f>
         <v>10050</v>
       </c>
       <c r="K7" s="1">
@@ -1441,6 +1441,44 @@
       </c>
       <c r="M12" s="1">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>500000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>500010</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>100001</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>5000050</v>
+      </c>
+      <c r="K13" s="1">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="M13" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M13"/>
+  <dimension ref="C3:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,21 +1222,21 @@
         <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F13" si="0">E6+10</f>
+        <f t="shared" ref="F7:F14" si="0">E6+10</f>
         <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H13" si="1">E6*0.2+1</f>
+        <f t="shared" ref="H7:H14" si="1">E6*0.2+1</f>
         <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J13" si="2">E6*10+50</f>
+        <f t="shared" ref="J7:J14" si="2">E6*10+50</f>
         <v>10050</v>
       </c>
       <c r="K7" s="1">
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L12" si="3">(E7-E6)*M7+L7</f>
+        <f t="shared" ref="L8:L14" si="3">(E7-E6)*M7+L7</f>
         <v>50100</v>
       </c>
       <c r="M8" s="1">
@@ -1437,10 +1437,11 @@
         <v>10</v>
       </c>
       <c r="L12" s="1">
-        <v>1000000</v>
+        <f t="shared" si="3"/>
+        <v>999900</v>
       </c>
       <c r="M12" s="1">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="3:13">
@@ -1448,7 +1449,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="1">
-        <v>500000</v>
+        <v>500001</v>
       </c>
       <c r="E13" s="1">
         <v>1000000</v>
@@ -1475,10 +1476,50 @@
         <v>10</v>
       </c>
       <c r="L13" s="1">
-        <v>1000000</v>
+        <f t="shared" si="3"/>
+        <v>34366800</v>
       </c>
       <c r="M13" s="1">
         <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" s="1">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>1000010</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>200001</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>10000050</v>
+      </c>
+      <c r="K14" s="1">
+        <v>10</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>84366800</v>
+      </c>
+      <c r="M14" s="1">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M14"/>
+  <dimension ref="C3:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,21 +1222,21 @@
         <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F14" si="0">E6+10</f>
+        <f t="shared" ref="F7:F15" si="0">E6+10</f>
         <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H14" si="1">E6*0.2+1</f>
+        <f t="shared" ref="H7:H15" si="1">E6*0.2+1</f>
         <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J14" si="2">E6*10+50</f>
+        <f t="shared" ref="J7:J15" si="2">E6*10+50</f>
         <v>10050</v>
       </c>
       <c r="K7" s="1">
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L14" si="3">(E7-E6)*M7+L7</f>
+        <f t="shared" ref="L8:L15" si="3">(E7-E6)*M7+L7</f>
         <v>50100</v>
       </c>
       <c r="M8" s="1">
@@ -1324,7 +1324,7 @@
         <v>140100</v>
       </c>
       <c r="M9" s="1">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="3:13">
@@ -1360,10 +1360,10 @@
       </c>
       <c r="L10" s="1">
         <f t="shared" si="3"/>
-        <v>300100</v>
+        <v>220100</v>
       </c>
       <c r="M10" s="1">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="3:13">
@@ -1399,10 +1399,10 @@
       </c>
       <c r="L11" s="1">
         <f t="shared" si="3"/>
-        <v>800100</v>
+        <v>320100</v>
       </c>
       <c r="M11" s="1">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="3:13">
@@ -1438,10 +1438,10 @@
       </c>
       <c r="L12" s="1">
         <f t="shared" si="3"/>
-        <v>999900</v>
+        <v>336750</v>
       </c>
       <c r="M12" s="1">
-        <v>70</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="3:13">
@@ -1477,10 +1477,10 @@
       </c>
       <c r="L13" s="1">
         <f t="shared" si="3"/>
-        <v>34366800</v>
+        <v>2243430</v>
       </c>
       <c r="M13" s="1">
-        <v>100</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="3:13">
@@ -1516,10 +1516,50 @@
       </c>
       <c r="L14" s="1">
         <f t="shared" si="3"/>
-        <v>84366800</v>
+        <v>3743430</v>
       </c>
       <c r="M14" s="1">
-        <v>200</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
+      <c r="C15" s="1">
+        <v>10</v>
+      </c>
+      <c r="D15" s="1">
+        <f>E14+1</f>
+        <v>2000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5000000</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>2000010</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>400001</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>20000050</v>
+      </c>
+      <c r="K15" s="1">
+        <v>10</v>
+      </c>
+      <c r="L15" s="1">
+        <f>(E14-E13)*M14+L14</f>
+        <v>5743430</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="11820"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -97,6 +97,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -113,6 +141,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -154,21 +190,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -214,28 +235,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,13 +256,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -280,24 +322,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -316,18 +370,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -340,36 +382,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,24 +406,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -419,12 +425,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -447,6 +447,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -479,21 +494,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -550,148 +550,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -702,52 +702,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M15"/>
+  <dimension ref="C3:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,21 +1222,21 @@
         <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F15" si="0">E6+10</f>
+        <f t="shared" ref="F7:F16" si="0">E6+10</f>
         <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H15" si="1">E6*0.2+1</f>
+        <f t="shared" ref="H7:H16" si="1">E6*0.2+1</f>
         <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J15" si="2">E6*10+50</f>
+        <f t="shared" ref="J7:J16" si="2">E6*10+50</f>
         <v>10050</v>
       </c>
       <c r="K7" s="1">
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L15" si="3">(E7-E6)*M7+L7</f>
+        <f t="shared" ref="L8:L16" si="3">(E7-E6)*M7+L7</f>
         <v>50100</v>
       </c>
       <c r="M8" s="1">
@@ -1555,11 +1555,51 @@
         <v>10</v>
       </c>
       <c r="L15" s="1">
-        <f>(E14-E13)*M14+L14</f>
+        <f t="shared" si="3"/>
         <v>5743430</v>
       </c>
       <c r="M15" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <f>E15+1</f>
+        <v>5000001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7500000</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>5000010</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>1000001</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>50000050</v>
+      </c>
+      <c r="K16" s="1">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>8743430</v>
+      </c>
+      <c r="M16" s="1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1047,10 +1047,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:M16"/>
+  <dimension ref="C3:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1222,21 +1222,21 @@
         <v>3000</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F16" si="0">E6+10</f>
+        <f t="shared" ref="F7:F18" si="0">E6+10</f>
         <v>1010</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" ref="H7:H16" si="1">E6*0.2+1</f>
+        <f t="shared" ref="H7:H18" si="1">E6*0.2+1</f>
         <v>201</v>
       </c>
       <c r="I7" s="1">
         <v>0.2</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" ref="J7:J16" si="2">E6*10+50</f>
+        <f t="shared" ref="J7:J18" si="2">E6*10+50</f>
         <v>10050</v>
       </c>
       <c r="K7" s="1">
@@ -1281,7 +1281,7 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" ref="L8:L16" si="3">(E7-E6)*M7+L7</f>
+        <f t="shared" ref="L8:L18" si="3">(E7-E6)*M7+L7</f>
         <v>50100</v>
       </c>
       <c r="M8" s="1">
@@ -1527,7 +1527,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="1">
-        <f>E14+1</f>
+        <f t="shared" ref="D15:D17" si="4">E14+1</f>
         <v>2000001</v>
       </c>
       <c r="E15" s="1">
@@ -1567,7 +1567,7 @@
         <v>11</v>
       </c>
       <c r="D16" s="1">
-        <f>E15+1</f>
+        <f t="shared" si="4"/>
         <v>5000001</v>
       </c>
       <c r="E16" s="1">
@@ -1599,7 +1599,87 @@
         <v>8743430</v>
       </c>
       <c r="M16" s="1">
-        <v>2</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f>E16+1</f>
+        <v>7500001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10000000</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>7500010</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="1"/>
+        <v>1500001</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>75000050</v>
+      </c>
+      <c r="K17" s="1">
+        <v>10</v>
+      </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>11243430</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <f>E17+1</f>
+        <v>10000001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>20000000</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>10000010</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" si="1"/>
+        <v>2000001</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>100000050</v>
+      </c>
+      <c r="K18" s="1">
+        <v>10</v>
+      </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>13743430</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1124,7 +1124,7 @@
         <v>500</v>
       </c>
       <c r="F8" s="1">
-        <v>500</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="3:6">
@@ -1139,7 +1139,7 @@
         <v>1000</v>
       </c>
       <c r="F9" s="1">
-        <v>1000</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="3:6">
@@ -1154,7 +1154,7 @@
         <v>2000</v>
       </c>
       <c r="F10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="3:6">
@@ -1169,7 +1169,7 @@
         <v>5000</v>
       </c>
       <c r="F11" s="1">
-        <v>5000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="12" spans="3:6">
@@ -1184,7 +1184,7 @@
         <v>10000</v>
       </c>
       <c r="F12" s="1">
-        <v>10000</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="13" spans="3:6">
@@ -1199,7 +1199,7 @@
         <v>20000</v>
       </c>
       <c r="F13" s="1">
-        <v>20000</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="14" spans="3:6">
@@ -1211,10 +1211,10 @@
         <v>20001</v>
       </c>
       <c r="E14" s="1">
-        <v>50000</v>
+        <v>30000</v>
       </c>
       <c r="F14" s="1">
-        <v>50000</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="15" spans="3:6">
@@ -1223,13 +1223,13 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>50001</v>
+        <v>30001</v>
       </c>
       <c r="E15" s="1">
-        <v>100000</v>
+        <v>40000</v>
       </c>
       <c r="F15" s="1">
-        <v>100000</v>
+        <v>4500</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1026,7 +1026,7 @@
   <dimension ref="C3:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1214,7 +1214,7 @@
         <v>30000</v>
       </c>
       <c r="F14" s="1">
-        <v>3600</v>
+        <v>2100</v>
       </c>
     </row>
     <row r="15" spans="3:6">

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,12 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -37,7 +50,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1023,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F15"/>
+  <dimension ref="C3:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1232,6 +1245,21 @@
         <v>4500</v>
       </c>
     </row>
+    <row r="16" spans="3:6">
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>40001</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F16"/>
+  <dimension ref="C3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1260,6 +1260,21 @@
         <v>10000</v>
       </c>
     </row>
+    <row r="17" spans="3:6">
+      <c r="C17" s="1">
+        <v>12</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>50001</v>
+      </c>
+      <c r="E17" s="1">
+        <v>60000</v>
+      </c>
+      <c r="F17" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1039,7 +1039,7 @@
   <dimension ref="C3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1257,7 +1257,7 @@
         <v>50000</v>
       </c>
       <c r="F16" s="1">
-        <v>10000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="17" spans="3:6">
@@ -1272,7 +1272,7 @@
         <v>60000</v>
       </c>
       <c r="F17" s="1">
-        <v>25000</v>
+        <v>13000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F17"/>
+  <dimension ref="C3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1275,6 +1275,21 @@
         <v>13000</v>
       </c>
     </row>
+    <row r="18" spans="3:6">
+      <c r="C18" s="1">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>60001</v>
+      </c>
+      <c r="E18" s="1">
+        <v>70000</v>
+      </c>
+      <c r="F18" s="1">
+        <v>18000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F18"/>
+  <dimension ref="C3:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D18" si="0">E6+1</f>
+        <f t="shared" ref="D7:D19" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1288,6 +1288,21 @@
       </c>
       <c r="F18" s="1">
         <v>18000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" s="1">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>70001</v>
+      </c>
+      <c r="E19" s="1">
+        <v>80000</v>
+      </c>
+      <c r="F19" s="1">
+        <v>23000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F19"/>
+  <dimension ref="C3:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D19" si="0">E6+1</f>
+        <f t="shared" ref="D7:D21" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1303,6 +1303,36 @@
       </c>
       <c r="F19" s="1">
         <v>23000</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" s="1">
+        <v>15</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>80001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>100000</v>
+      </c>
+      <c r="F20" s="1">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6">
+      <c r="C21" s="1">
+        <v>16</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>100001</v>
+      </c>
+      <c r="E21" s="1">
+        <v>120000</v>
+      </c>
+      <c r="F21" s="1">
+        <v>33000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F21"/>
+  <dimension ref="C3:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D21" si="0">E6+1</f>
+        <f t="shared" ref="D7:D22" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1333,6 +1333,21 @@
       </c>
       <c r="F21" s="1">
         <v>33000</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6">
+      <c r="C22" s="1">
+        <v>17</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>120001</v>
+      </c>
+      <c r="E22" s="1">
+        <v>130000</v>
+      </c>
+      <c r="F22" s="1">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F22"/>
+  <dimension ref="C3:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D22" si="0">E6+1</f>
+        <f t="shared" ref="D7:D23" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1347,7 +1347,22 @@
         <v>130000</v>
       </c>
       <c r="F22" s="1">
-        <v>50000</v>
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="C23" s="1">
+        <v>18</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>130001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>140000</v>
+      </c>
+      <c r="F23" s="1">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F23"/>
+  <dimension ref="C3:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D23" si="0">E6+1</f>
+        <f t="shared" ref="D7:D26" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1363,6 +1363,54 @@
       </c>
       <c r="F23" s="1">
         <v>200000</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6">
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>140001</v>
+      </c>
+      <c r="E24" s="1">
+        <v>150000</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" ref="F24:F26" si="1">F23*3</f>
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6">
+      <c r="C25" s="1">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>150001</v>
+      </c>
+      <c r="E25" s="1">
+        <v>160000</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="1">
+        <v>21</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>160001</v>
+      </c>
+      <c r="E26" s="1">
+        <v>170000</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>5400000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UnitProto" sheetId="1" r:id="rId1"/>
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F26"/>
+  <dimension ref="C3:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D26" si="0">E6+1</f>
+        <f t="shared" ref="D7:D29" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1377,7 +1377,7 @@
         <v>150000</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24:F26" si="1">F23*3</f>
+        <f t="shared" ref="F24:F29" si="1">F23*3</f>
         <v>600000</v>
       </c>
     </row>
@@ -1411,6 +1411,54 @@
       <c r="F26" s="1">
         <f t="shared" si="1"/>
         <v>5400000</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6">
+      <c r="C27" s="1">
+        <v>22</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>170001</v>
+      </c>
+      <c r="E27" s="1">
+        <v>180000</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>16200000</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6">
+      <c r="C28" s="1">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>180001</v>
+      </c>
+      <c r="E28" s="1">
+        <v>190000</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>48600000</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="1">
+        <v>24</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>190001</v>
+      </c>
+      <c r="E29" s="1">
+        <v>200000</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>145800000</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/LevelConfig.xlsx
+++ b/Excel/LevelConfig.xlsx
@@ -1036,10 +1036,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:F29"/>
+  <dimension ref="C3:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -1049,7 +1049,7 @@
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.25" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
@@ -1115,7 +1115,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" ref="D7:D29" si="0">E6+1</f>
+        <f t="shared" ref="D7:D34" si="0">E6+1</f>
         <v>101</v>
       </c>
       <c r="E7" s="1">
@@ -1377,7 +1377,7 @@
         <v>150000</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" ref="F24:F29" si="1">F23*3</f>
+        <f t="shared" ref="F24:F34" si="1">F23*3</f>
         <v>600000</v>
       </c>
     </row>
@@ -1459,6 +1459,86 @@
       <c r="F29" s="1">
         <f t="shared" si="1"/>
         <v>145800000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="1">
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>200001</v>
+      </c>
+      <c r="E30" s="1">
+        <v>210000</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>437400000</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <f>E30+1</f>
+        <v>210001</v>
+      </c>
+      <c r="E31" s="1">
+        <v>220000</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>1312200000</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="1">
+        <v>27</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>220001</v>
+      </c>
+      <c r="E32" s="1">
+        <v>230000</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>3936600000</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>230001</v>
+      </c>
+      <c r="E33" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>11809800000</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="1">
+        <v>29</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>250001</v>
+      </c>
+      <c r="E34" s="1">
+        <v>260000</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>35429400000</v>
       </c>
     </row>
   </sheetData>
